--- a/temp/pages/all-profiles.xlsx
+++ b/temp/pages/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10436" uniqueCount="1186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11025" uniqueCount="1233">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-07T03:01:36+00:00</t>
+    <t>2025-09-07T21:33:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3029,6 +3029,39 @@
   </si>
   <si>
     <t>Patient.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Patient.extension:tribalAffiliation</t>
+  </si>
+  <si>
+    <t>tribalAffiliation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://wrig.corisystem.org/StructureDefinition/us-core-tribalAffiliation}
+</t>
+  </si>
+  <si>
+    <t>US Core Tribal Affiliation Extension</t>
+  </si>
+  <si>
+    <t>Indicates tribal affiliation for American Indian/Alaska Native patients</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>Patient.modifierExtension</t>
@@ -3698,6 +3731,119 @@
   </si>
   <si>
     <t>RelatedPerson.communication.preferred</t>
+  </si>
+  <si>
+    <t>us-core-tribalAffiliation</t>
+  </si>
+  <si>
+    <t>http://wrig.corisystem.org/StructureDefinition/us-core-tribalAffiliation</t>
+  </si>
+  <si>
+    <t>USCoreTribalAffiliation</t>
+  </si>
+  <si>
+    <t>complex-type</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+  </si>
+  <si>
+    <t>Context</t>
+  </si>
+  <si>
+    <t>element:Patient</t>
+  </si>
+  <si>
+    <t>Extension.id</t>
+  </si>
+  <si>
+    <t>Extension.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Extension.extension:tribalAffiliation</t>
+  </si>
+  <si>
+    <t>Extension.extension:tribalAffiliation.id</t>
+  </si>
+  <si>
+    <t>Extension.extension.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:tribalAffiliation.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:tribalAffiliation.url</t>
+  </si>
+  <si>
+    <t>Extension.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:tribalAffiliation.value[x]</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x]</t>
+  </si>
+  <si>
+    <t>base64Binary
+booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>Extension.extension:tribalAffiliation.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v3-TribalEntityUS</t>
+  </si>
+  <si>
+    <t>Extension.extension:isEnrolled</t>
+  </si>
+  <si>
+    <t>isEnrolled</t>
+  </si>
+  <si>
+    <t>Extension.extension:isEnrolled.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:isEnrolled.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:isEnrolled.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:isEnrolled.value[x]</t>
   </si>
 </sst>
 </file>
@@ -3831,7 +3977,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B147"/>
+  <dimension ref="A1:B169"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4826,7 +4972,7 @@
         <v>2</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>1119</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="129">
@@ -4834,7 +4980,7 @@
         <v>4</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>1120</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="130">
@@ -4850,7 +4996,7 @@
         <v>8</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>1119</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="132">
@@ -4858,7 +5004,7 @@
         <v>9</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>1121</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="133">
@@ -4912,7 +5058,7 @@
         <v>22</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>1122</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="140">
@@ -4948,7 +5094,7 @@
         <v>30</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>1123</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="145">
@@ -4956,7 +5102,7 @@
         <v>32</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>1124</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="146">
@@ -4973,6 +5119,176 @@
       </c>
       <c r="B147" t="s" s="2">
         <v>37</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B148" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B149" t="s" s="2">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B150" t="s" s="2">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B151" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B152" t="s" s="2">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B153" t="s" s="2">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B154" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B155" s="2"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B156" t="s" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B157" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B158" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B159" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B160" t="s" s="2">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B161" s="2"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B162" s="2"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B163" t="s" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B164" t="s" s="2">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B165" t="s" s="2">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B166" t="s" s="2">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B167" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B168" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s" s="2">
+        <v>1201</v>
+      </c>
+      <c r="B169" t="s" s="2">
+        <v>1202</v>
       </c>
     </row>
   </sheetData>
@@ -4982,7 +5298,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK307"/>
+  <dimension ref="A1:AK324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4991,10 +5307,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="45.9296875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="18.84765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="54.5546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="45.9296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="19.078125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="34.21875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -5020,7 +5336,7 @@
     <col min="27" max="27" width="48.2265625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="36.0390625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.7578125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="39.16015625" customWidth="true" bestFit="true" hidden="true"/>
@@ -30511,7 +30827,7 @@
       </c>
       <c r="D244" s="2"/>
       <c r="E244" t="s" s="2">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="F244" s="2"/>
       <c r="G244" t="s" s="2">
@@ -30533,14 +30849,12 @@
         <v>125</v>
       </c>
       <c r="M244" t="s" s="2">
-        <v>126</v>
+        <v>970</v>
       </c>
       <c r="N244" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="O244" t="s" s="2">
-        <v>128</v>
-      </c>
+        <v>971</v>
+      </c>
+      <c r="O244" s="2"/>
       <c r="P244" s="2"/>
       <c r="Q244" t="s" s="2">
         <v>21</v>
@@ -30577,16 +30891,14 @@
         <v>21</v>
       </c>
       <c r="AC244" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AD244" t="s" s="2">
-        <v>21</v>
-      </c>
+        <v>972</v>
+      </c>
+      <c r="AD244" s="2"/>
       <c r="AE244" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AF244" t="s" s="2">
-        <v>21</v>
+        <v>973</v>
       </c>
       <c r="AG244" t="s" s="2">
         <v>129</v>
@@ -30609,46 +30921,44 @@
         <v>954</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="C245" t="s" s="2">
-        <v>970</v>
-      </c>
-      <c r="D245" s="2"/>
+        <v>969</v>
+      </c>
+      <c r="D245" t="s" s="2">
+        <v>975</v>
+      </c>
       <c r="E245" t="s" s="2">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="F245" s="2"/>
       <c r="G245" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H245" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I245" t="s" s="2">
         <v>21</v>
       </c>
       <c r="J245" t="s" s="2">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="K245" t="s" s="2">
         <v>21</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>125</v>
+        <v>976</v>
       </c>
       <c r="M245" t="s" s="2">
-        <v>132</v>
+        <v>977</v>
       </c>
       <c r="N245" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O245" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="P245" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>978</v>
+      </c>
+      <c r="O245" s="2"/>
+      <c r="P245" s="2"/>
       <c r="Q245" t="s" s="2">
         <v>21</v>
       </c>
@@ -30696,7 +31006,7 @@
         <v>21</v>
       </c>
       <c r="AG245" t="s" s="2">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="AH245" t="s" s="2">
         <v>74</v>
@@ -30705,7 +31015,7 @@
         <v>75</v>
       </c>
       <c r="AJ245" t="s" s="2">
-        <v>21</v>
+        <v>979</v>
       </c>
       <c r="AK245" t="s" s="2">
         <v>130</v>
@@ -30716,14 +31026,14 @@
         <v>954</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>971</v>
+        <v>980</v>
       </c>
       <c r="C246" t="s" s="2">
-        <v>971</v>
+        <v>980</v>
       </c>
       <c r="D246" s="2"/>
       <c r="E246" t="s" s="2">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="F246" s="2"/>
       <c r="G246" t="s" s="2">
@@ -30733,26 +31043,28 @@
         <v>75</v>
       </c>
       <c r="I246" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="J246" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="J246" t="s" s="2">
-        <v>21</v>
-      </c>
       <c r="K246" t="s" s="2">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="M246" t="s" s="2">
-        <v>972</v>
+        <v>132</v>
       </c>
       <c r="N246" t="s" s="2">
-        <v>973</v>
-      </c>
-      <c r="O246" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="O246" t="s" s="2">
+        <v>128</v>
+      </c>
       <c r="P246" t="s" s="2">
-        <v>974</v>
+        <v>134</v>
       </c>
       <c r="Q246" t="s" s="2">
         <v>21</v>
@@ -30801,7 +31113,7 @@
         <v>21</v>
       </c>
       <c r="AG246" t="s" s="2">
-        <v>971</v>
+        <v>135</v>
       </c>
       <c r="AH246" t="s" s="2">
         <v>74</v>
@@ -30813,7 +31125,7 @@
         <v>21</v>
       </c>
       <c r="AK246" t="s" s="2">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="247">
@@ -30821,10 +31133,10 @@
         <v>954</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>975</v>
+        <v>981</v>
       </c>
       <c r="C247" t="s" s="2">
-        <v>975</v>
+        <v>981</v>
       </c>
       <c r="D247" s="2"/>
       <c r="E247" t="s" s="2">
@@ -30835,38 +31147,34 @@
         <v>74</v>
       </c>
       <c r="H247" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I247" t="s" s="2">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="J247" t="s" s="2">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="K247" t="s" s="2">
         <v>82</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>421</v>
+        <v>137</v>
       </c>
       <c r="M247" t="s" s="2">
-        <v>976</v>
+        <v>982</v>
       </c>
       <c r="N247" t="s" s="2">
-        <v>977</v>
-      </c>
-      <c r="O247" t="s" s="2">
-        <v>978</v>
-      </c>
+        <v>983</v>
+      </c>
+      <c r="O247" s="2"/>
       <c r="P247" t="s" s="2">
-        <v>979</v>
+        <v>984</v>
       </c>
       <c r="Q247" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="R247" t="s" s="2">
-        <v>980</v>
-      </c>
+      <c r="R247" s="2"/>
       <c r="S247" t="s" s="2">
         <v>21</v>
       </c>
@@ -30910,13 +31218,13 @@
         <v>21</v>
       </c>
       <c r="AG247" t="s" s="2">
-        <v>975</v>
+        <v>981</v>
       </c>
       <c r="AH247" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI247" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ247" t="s" s="2">
         <v>21</v>
@@ -30930,10 +31238,10 @@
         <v>954</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>981</v>
+        <v>985</v>
       </c>
       <c r="C248" t="s" s="2">
-        <v>981</v>
+        <v>985</v>
       </c>
       <c r="D248" s="2"/>
       <c r="E248" t="s" s="2">
@@ -30944,86 +31252,88 @@
         <v>74</v>
       </c>
       <c r="H248" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I248" t="s" s="2">
         <v>21</v>
       </c>
       <c r="J248" t="s" s="2">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="K248" t="s" s="2">
         <v>82</v>
       </c>
       <c r="L248" t="s" s="2">
-        <v>982</v>
+        <v>421</v>
       </c>
       <c r="M248" t="s" s="2">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="N248" t="s" s="2">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="O248" t="s" s="2">
+        <v>988</v>
+      </c>
+      <c r="P248" t="s" s="2">
+        <v>989</v>
+      </c>
+      <c r="Q248" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="R248" t="s" s="2">
+        <v>990</v>
+      </c>
+      <c r="S248" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="T248" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="U248" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="V248" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="W248" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="X248" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Y248" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Z248" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AA248" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AB248" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AC248" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AD248" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AE248" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AF248" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AG248" t="s" s="2">
         <v>985</v>
       </c>
-      <c r="P248" t="s" s="2">
-        <v>986</v>
-      </c>
-      <c r="Q248" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="R248" s="2"/>
-      <c r="S248" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="T248" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="U248" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="V248" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="W248" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="X248" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="Y248" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="Z248" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AA248" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AB248" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AC248" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AD248" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AE248" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AF248" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AG248" t="s" s="2">
-        <v>981</v>
-      </c>
       <c r="AH248" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI248" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ248" t="s" s="2">
         <v>21</v>
@@ -31037,10 +31347,10 @@
         <v>954</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>987</v>
+        <v>991</v>
       </c>
       <c r="C249" t="s" s="2">
-        <v>987</v>
+        <v>991</v>
       </c>
       <c r="D249" s="2"/>
       <c r="E249" t="s" s="2">
@@ -31063,19 +31373,19 @@
         <v>82</v>
       </c>
       <c r="L249" t="s" s="2">
-        <v>988</v>
+        <v>992</v>
       </c>
       <c r="M249" t="s" s="2">
-        <v>989</v>
+        <v>993</v>
       </c>
       <c r="N249" t="s" s="2">
-        <v>990</v>
+        <v>994</v>
       </c>
       <c r="O249" t="s" s="2">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="P249" t="s" s="2">
-        <v>992</v>
+        <v>996</v>
       </c>
       <c r="Q249" t="s" s="2">
         <v>21</v>
@@ -31124,7 +31434,7 @@
         <v>21</v>
       </c>
       <c r="AG249" t="s" s="2">
-        <v>987</v>
+        <v>991</v>
       </c>
       <c r="AH249" t="s" s="2">
         <v>74</v>
@@ -31144,10 +31454,10 @@
         <v>954</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>993</v>
+        <v>997</v>
       </c>
       <c r="C250" t="s" s="2">
-        <v>993</v>
+        <v>997</v>
       </c>
       <c r="D250" s="2"/>
       <c r="E250" t="s" s="2">
@@ -31158,7 +31468,7 @@
         <v>74</v>
       </c>
       <c r="H250" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I250" t="s" s="2">
         <v>21</v>
@@ -31170,19 +31480,19 @@
         <v>82</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>101</v>
+        <v>998</v>
       </c>
       <c r="M250" t="s" s="2">
-        <v>994</v>
+        <v>999</v>
       </c>
       <c r="N250" t="s" s="2">
-        <v>995</v>
+        <v>1000</v>
       </c>
       <c r="O250" t="s" s="2">
-        <v>996</v>
+        <v>1001</v>
       </c>
       <c r="P250" t="s" s="2">
-        <v>997</v>
+        <v>1002</v>
       </c>
       <c r="Q250" t="s" s="2">
         <v>21</v>
@@ -31207,13 +31517,13 @@
         <v>21</v>
       </c>
       <c r="Y250" t="s" s="2">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="Z250" t="s" s="2">
-        <v>998</v>
+        <v>21</v>
       </c>
       <c r="AA250" t="s" s="2">
-        <v>999</v>
+        <v>21</v>
       </c>
       <c r="AB250" t="s" s="2">
         <v>21</v>
@@ -31231,13 +31541,13 @@
         <v>21</v>
       </c>
       <c r="AG250" t="s" s="2">
-        <v>993</v>
+        <v>997</v>
       </c>
       <c r="AH250" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI250" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ250" t="s" s="2">
         <v>21</v>
@@ -31251,10 +31561,10 @@
         <v>954</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="C251" t="s" s="2">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="D251" s="2"/>
       <c r="E251" t="s" s="2">
@@ -31262,13 +31572,13 @@
       </c>
       <c r="F251" s="2"/>
       <c r="G251" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H251" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I251" t="s" s="2">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="J251" t="s" s="2">
         <v>21</v>
@@ -31277,19 +31587,19 @@
         <v>82</v>
       </c>
       <c r="L251" t="s" s="2">
-        <v>1001</v>
+        <v>101</v>
       </c>
       <c r="M251" t="s" s="2">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="N251" t="s" s="2">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="O251" t="s" s="2">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="P251" t="s" s="2">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="Q251" t="s" s="2">
         <v>21</v>
@@ -31314,13 +31624,13 @@
         <v>21</v>
       </c>
       <c r="Y251" t="s" s="2">
-        <v>21</v>
+        <v>147</v>
       </c>
       <c r="Z251" t="s" s="2">
-        <v>21</v>
+        <v>1008</v>
       </c>
       <c r="AA251" t="s" s="2">
-        <v>21</v>
+        <v>1009</v>
       </c>
       <c r="AB251" t="s" s="2">
         <v>21</v>
@@ -31338,7 +31648,7 @@
         <v>21</v>
       </c>
       <c r="AG251" t="s" s="2">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="AH251" t="s" s="2">
         <v>74</v>
@@ -31358,10 +31668,10 @@
         <v>954</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>1006</v>
+        <v>1010</v>
       </c>
       <c r="C252" t="s" s="2">
-        <v>1006</v>
+        <v>1010</v>
       </c>
       <c r="D252" s="2"/>
       <c r="E252" t="s" s="2">
@@ -31369,34 +31679,34 @@
       </c>
       <c r="F252" s="2"/>
       <c r="G252" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H252" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I252" t="s" s="2">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="J252" t="s" s="2">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="K252" t="s" s="2">
         <v>82</v>
       </c>
       <c r="L252" t="s" s="2">
-        <v>1007</v>
+        <v>1011</v>
       </c>
       <c r="M252" t="s" s="2">
-        <v>1008</v>
+        <v>1012</v>
       </c>
       <c r="N252" t="s" s="2">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="O252" t="s" s="2">
-        <v>1010</v>
+        <v>1014</v>
       </c>
       <c r="P252" t="s" s="2">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="Q252" t="s" s="2">
         <v>21</v>
@@ -31445,7 +31755,7 @@
         <v>21</v>
       </c>
       <c r="AG252" t="s" s="2">
-        <v>1006</v>
+        <v>1010</v>
       </c>
       <c r="AH252" t="s" s="2">
         <v>74</v>
@@ -31465,10 +31775,10 @@
         <v>954</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>1012</v>
+        <v>1016</v>
       </c>
       <c r="C253" t="s" s="2">
-        <v>1012</v>
+        <v>1016</v>
       </c>
       <c r="D253" s="2"/>
       <c r="E253" t="s" s="2">
@@ -31479,31 +31789,31 @@
         <v>74</v>
       </c>
       <c r="H253" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I253" t="s" s="2">
         <v>21</v>
       </c>
       <c r="J253" t="s" s="2">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="K253" t="s" s="2">
         <v>82</v>
       </c>
       <c r="L253" t="s" s="2">
-        <v>1013</v>
+        <v>1017</v>
       </c>
       <c r="M253" t="s" s="2">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="N253" t="s" s="2">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="O253" t="s" s="2">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="P253" t="s" s="2">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="Q253" t="s" s="2">
         <v>21</v>
@@ -31552,13 +31862,13 @@
         <v>21</v>
       </c>
       <c r="AG253" t="s" s="2">
-        <v>1012</v>
+        <v>1016</v>
       </c>
       <c r="AH253" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI253" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ253" t="s" s="2">
         <v>21</v>
@@ -31572,10 +31882,10 @@
         <v>954</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="C254" t="s" s="2">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="D254" s="2"/>
       <c r="E254" t="s" s="2">
@@ -31586,7 +31896,7 @@
         <v>74</v>
       </c>
       <c r="H254" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I254" t="s" s="2">
         <v>21</v>
@@ -31595,20 +31905,22 @@
         <v>21</v>
       </c>
       <c r="K254" t="s" s="2">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="L254" t="s" s="2">
-        <v>143</v>
+        <v>1023</v>
       </c>
       <c r="M254" t="s" s="2">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="N254" t="s" s="2">
-        <v>1020</v>
-      </c>
-      <c r="O254" s="2"/>
+        <v>1025</v>
+      </c>
+      <c r="O254" t="s" s="2">
+        <v>1026</v>
+      </c>
       <c r="P254" t="s" s="2">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="Q254" t="s" s="2">
         <v>21</v>
@@ -31633,37 +31945,37 @@
         <v>21</v>
       </c>
       <c r="Y254" t="s" s="2">
-        <v>162</v>
+        <v>21</v>
       </c>
       <c r="Z254" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AA254" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AB254" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AC254" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AD254" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AE254" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AF254" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AG254" t="s" s="2">
         <v>1022</v>
       </c>
-      <c r="AA254" t="s" s="2">
-        <v>1023</v>
-      </c>
-      <c r="AB254" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AC254" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AD254" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AE254" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AF254" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AG254" t="s" s="2">
-        <v>1018</v>
-      </c>
       <c r="AH254" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI254" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ254" t="s" s="2">
         <v>21</v>
@@ -31677,10 +31989,10 @@
         <v>954</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>1024</v>
+        <v>1028</v>
       </c>
       <c r="C255" t="s" s="2">
-        <v>1024</v>
+        <v>1028</v>
       </c>
       <c r="D255" s="2"/>
       <c r="E255" t="s" s="2">
@@ -31703,19 +32015,17 @@
         <v>21</v>
       </c>
       <c r="L255" t="s" s="2">
-        <v>1025</v>
+        <v>143</v>
       </c>
       <c r="M255" t="s" s="2">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="N255" t="s" s="2">
-        <v>1027</v>
-      </c>
-      <c r="O255" t="s" s="2">
-        <v>1028</v>
-      </c>
+        <v>1030</v>
+      </c>
+      <c r="O255" s="2"/>
       <c r="P255" t="s" s="2">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="Q255" t="s" s="2">
         <v>21</v>
@@ -31740,13 +32050,13 @@
         <v>21</v>
       </c>
       <c r="Y255" t="s" s="2">
-        <v>21</v>
+        <v>162</v>
       </c>
       <c r="Z255" t="s" s="2">
-        <v>21</v>
+        <v>1032</v>
       </c>
       <c r="AA255" t="s" s="2">
-        <v>21</v>
+        <v>1033</v>
       </c>
       <c r="AB255" t="s" s="2">
         <v>21</v>
@@ -31764,7 +32074,7 @@
         <v>21</v>
       </c>
       <c r="AG255" t="s" s="2">
-        <v>1024</v>
+        <v>1028</v>
       </c>
       <c r="AH255" t="s" s="2">
         <v>74</v>
@@ -31784,10 +32094,10 @@
         <v>954</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="C256" t="s" s="2">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="D256" s="2"/>
       <c r="E256" t="s" s="2">
@@ -31798,7 +32108,7 @@
         <v>74</v>
       </c>
       <c r="H256" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I256" t="s" s="2">
         <v>21</v>
@@ -31810,19 +32120,19 @@
         <v>21</v>
       </c>
       <c r="L256" t="s" s="2">
-        <v>1031</v>
+        <v>1035</v>
       </c>
       <c r="M256" t="s" s="2">
-        <v>1032</v>
+        <v>1036</v>
       </c>
       <c r="N256" t="s" s="2">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="O256" t="s" s="2">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="P256" t="s" s="2">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="Q256" t="s" s="2">
         <v>21</v>
@@ -31871,13 +32181,13 @@
         <v>21</v>
       </c>
       <c r="AG256" t="s" s="2">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="AH256" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI256" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ256" t="s" s="2">
         <v>21</v>
@@ -31891,10 +32201,10 @@
         <v>954</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>1036</v>
+        <v>1040</v>
       </c>
       <c r="C257" t="s" s="2">
-        <v>1036</v>
+        <v>1040</v>
       </c>
       <c r="D257" s="2"/>
       <c r="E257" t="s" s="2">
@@ -31917,19 +32227,19 @@
         <v>21</v>
       </c>
       <c r="L257" t="s" s="2">
-        <v>216</v>
+        <v>1041</v>
       </c>
       <c r="M257" t="s" s="2">
-        <v>1037</v>
+        <v>1042</v>
       </c>
       <c r="N257" t="s" s="2">
-        <v>1038</v>
+        <v>1043</v>
       </c>
       <c r="O257" t="s" s="2">
-        <v>1039</v>
+        <v>1044</v>
       </c>
       <c r="P257" t="s" s="2">
-        <v>1040</v>
+        <v>1045</v>
       </c>
       <c r="Q257" t="s" s="2">
         <v>21</v>
@@ -31978,7 +32288,7 @@
         <v>21</v>
       </c>
       <c r="AG257" t="s" s="2">
-        <v>1036</v>
+        <v>1040</v>
       </c>
       <c r="AH257" t="s" s="2">
         <v>74</v>
@@ -31990,7 +32300,7 @@
         <v>21</v>
       </c>
       <c r="AK257" t="s" s="2">
-        <v>1041</v>
+        <v>93</v>
       </c>
     </row>
     <row r="258">
@@ -31998,10 +32308,10 @@
         <v>954</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>1042</v>
+        <v>1046</v>
       </c>
       <c r="C258" t="s" s="2">
-        <v>1042</v>
+        <v>1046</v>
       </c>
       <c r="D258" s="2"/>
       <c r="E258" t="s" s="2">
@@ -32012,7 +32322,7 @@
         <v>74</v>
       </c>
       <c r="H258" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I258" t="s" s="2">
         <v>21</v>
@@ -32024,16 +32334,20 @@
         <v>21</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="M258" t="s" s="2">
-        <v>222</v>
+        <v>1047</v>
       </c>
       <c r="N258" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="O258" s="2"/>
-      <c r="P258" s="2"/>
+        <v>1048</v>
+      </c>
+      <c r="O258" t="s" s="2">
+        <v>1049</v>
+      </c>
+      <c r="P258" t="s" s="2">
+        <v>1050</v>
+      </c>
       <c r="Q258" t="s" s="2">
         <v>21</v>
       </c>
@@ -32081,19 +32395,19 @@
         <v>21</v>
       </c>
       <c r="AG258" t="s" s="2">
-        <v>224</v>
+        <v>1046</v>
       </c>
       <c r="AH258" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI258" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ258" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AK258" t="s" s="2">
-        <v>21</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="259">
@@ -32101,21 +32415,21 @@
         <v>954</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>1043</v>
+        <v>1052</v>
       </c>
       <c r="C259" t="s" s="2">
-        <v>1043</v>
+        <v>1052</v>
       </c>
       <c r="D259" s="2"/>
       <c r="E259" t="s" s="2">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="F259" s="2"/>
       <c r="G259" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H259" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I259" t="s" s="2">
         <v>21</v>
@@ -32127,17 +32441,15 @@
         <v>21</v>
       </c>
       <c r="L259" t="s" s="2">
-        <v>125</v>
+        <v>221</v>
       </c>
       <c r="M259" t="s" s="2">
-        <v>126</v>
+        <v>222</v>
       </c>
       <c r="N259" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="O259" t="s" s="2">
-        <v>128</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="O259" s="2"/>
       <c r="P259" s="2"/>
       <c r="Q259" t="s" s="2">
         <v>21</v>
@@ -32186,19 +32498,19 @@
         <v>21</v>
       </c>
       <c r="AG259" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AH259" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI259" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ259" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AK259" t="s" s="2">
-        <v>130</v>
+        <v>21</v>
       </c>
     </row>
     <row r="260">
@@ -32206,14 +32518,14 @@
         <v>954</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>1044</v>
+        <v>1053</v>
       </c>
       <c r="C260" t="s" s="2">
-        <v>1044</v>
+        <v>1053</v>
       </c>
       <c r="D260" s="2"/>
       <c r="E260" t="s" s="2">
-        <v>229</v>
+        <v>124</v>
       </c>
       <c r="F260" s="2"/>
       <c r="G260" t="s" s="2">
@@ -32226,26 +32538,24 @@
         <v>21</v>
       </c>
       <c r="J260" t="s" s="2">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="K260" t="s" s="2">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="L260" t="s" s="2">
         <v>125</v>
       </c>
       <c r="M260" t="s" s="2">
-        <v>230</v>
+        <v>126</v>
       </c>
       <c r="N260" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="O260" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="P260" t="s" s="2">
-        <v>134</v>
-      </c>
+      <c r="P260" s="2"/>
       <c r="Q260" t="s" s="2">
         <v>21</v>
       </c>
@@ -32293,7 +32603,7 @@
         <v>21</v>
       </c>
       <c r="AG260" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="AH260" t="s" s="2">
         <v>74</v>
@@ -32313,14 +32623,14 @@
         <v>954</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>1045</v>
+        <v>1054</v>
       </c>
       <c r="C261" t="s" s="2">
-        <v>1045</v>
+        <v>1054</v>
       </c>
       <c r="D261" s="2"/>
       <c r="E261" t="s" s="2">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="F261" s="2"/>
       <c r="G261" t="s" s="2">
@@ -32333,23 +32643,25 @@
         <v>21</v>
       </c>
       <c r="J261" t="s" s="2">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="K261" t="s" s="2">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="M261" t="s" s="2">
-        <v>1046</v>
+        <v>230</v>
       </c>
       <c r="N261" t="s" s="2">
-        <v>1047</v>
-      </c>
-      <c r="O261" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="O261" t="s" s="2">
+        <v>128</v>
+      </c>
       <c r="P261" t="s" s="2">
-        <v>1048</v>
+        <v>134</v>
       </c>
       <c r="Q261" t="s" s="2">
         <v>21</v>
@@ -32374,13 +32686,13 @@
         <v>21</v>
       </c>
       <c r="Y261" t="s" s="2">
-        <v>162</v>
+        <v>21</v>
       </c>
       <c r="Z261" t="s" s="2">
-        <v>1049</v>
+        <v>21</v>
       </c>
       <c r="AA261" t="s" s="2">
-        <v>1050</v>
+        <v>21</v>
       </c>
       <c r="AB261" t="s" s="2">
         <v>21</v>
@@ -32398,7 +32710,7 @@
         <v>21</v>
       </c>
       <c r="AG261" t="s" s="2">
-        <v>1045</v>
+        <v>232</v>
       </c>
       <c r="AH261" t="s" s="2">
         <v>74</v>
@@ -32410,7 +32722,7 @@
         <v>21</v>
       </c>
       <c r="AK261" t="s" s="2">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="262">
@@ -32418,10 +32730,10 @@
         <v>954</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>1051</v>
+        <v>1055</v>
       </c>
       <c r="C262" t="s" s="2">
-        <v>1051</v>
+        <v>1055</v>
       </c>
       <c r="D262" s="2"/>
       <c r="E262" t="s" s="2">
@@ -32432,7 +32744,7 @@
         <v>74</v>
       </c>
       <c r="H262" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I262" t="s" s="2">
         <v>21</v>
@@ -32444,17 +32756,17 @@
         <v>21</v>
       </c>
       <c r="L262" t="s" s="2">
-        <v>982</v>
+        <v>143</v>
       </c>
       <c r="M262" t="s" s="2">
-        <v>1052</v>
+        <v>1056</v>
       </c>
       <c r="N262" t="s" s="2">
-        <v>1053</v>
+        <v>1057</v>
       </c>
       <c r="O262" s="2"/>
       <c r="P262" t="s" s="2">
-        <v>1054</v>
+        <v>1058</v>
       </c>
       <c r="Q262" t="s" s="2">
         <v>21</v>
@@ -32479,13 +32791,13 @@
         <v>21</v>
       </c>
       <c r="Y262" t="s" s="2">
-        <v>21</v>
+        <v>162</v>
       </c>
       <c r="Z262" t="s" s="2">
-        <v>21</v>
+        <v>1059</v>
       </c>
       <c r="AA262" t="s" s="2">
-        <v>21</v>
+        <v>1060</v>
       </c>
       <c r="AB262" t="s" s="2">
         <v>21</v>
@@ -32503,13 +32815,13 @@
         <v>21</v>
       </c>
       <c r="AG262" t="s" s="2">
-        <v>1051</v>
+        <v>1055</v>
       </c>
       <c r="AH262" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI262" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ262" t="s" s="2">
         <v>21</v>
@@ -32523,10 +32835,10 @@
         <v>954</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>1055</v>
+        <v>1061</v>
       </c>
       <c r="C263" t="s" s="2">
-        <v>1055</v>
+        <v>1061</v>
       </c>
       <c r="D263" s="2"/>
       <c r="E263" t="s" s="2">
@@ -32537,7 +32849,7 @@
         <v>74</v>
       </c>
       <c r="H263" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I263" t="s" s="2">
         <v>21</v>
@@ -32549,19 +32861,17 @@
         <v>21</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>988</v>
+        <v>992</v>
       </c>
       <c r="M263" t="s" s="2">
-        <v>1056</v>
+        <v>1062</v>
       </c>
       <c r="N263" t="s" s="2">
-        <v>1057</v>
-      </c>
-      <c r="O263" t="s" s="2">
-        <v>1058</v>
-      </c>
+        <v>1063</v>
+      </c>
+      <c r="O263" s="2"/>
       <c r="P263" t="s" s="2">
-        <v>992</v>
+        <v>1064</v>
       </c>
       <c r="Q263" t="s" s="2">
         <v>21</v>
@@ -32610,13 +32920,13 @@
         <v>21</v>
       </c>
       <c r="AG263" t="s" s="2">
-        <v>1055</v>
+        <v>1061</v>
       </c>
       <c r="AH263" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI263" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ263" t="s" s="2">
         <v>21</v>
@@ -32630,10 +32940,10 @@
         <v>954</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="C264" t="s" s="2">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="D264" s="2"/>
       <c r="E264" t="s" s="2">
@@ -32644,7 +32954,7 @@
         <v>74</v>
       </c>
       <c r="H264" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I264" t="s" s="2">
         <v>21</v>
@@ -32656,17 +32966,19 @@
         <v>21</v>
       </c>
       <c r="L264" t="s" s="2">
-        <v>1013</v>
+        <v>998</v>
       </c>
       <c r="M264" t="s" s="2">
-        <v>1060</v>
+        <v>1066</v>
       </c>
       <c r="N264" t="s" s="2">
-        <v>1061</v>
-      </c>
-      <c r="O264" s="2"/>
+        <v>1067</v>
+      </c>
+      <c r="O264" t="s" s="2">
+        <v>1068</v>
+      </c>
       <c r="P264" t="s" s="2">
-        <v>1062</v>
+        <v>1002</v>
       </c>
       <c r="Q264" t="s" s="2">
         <v>21</v>
@@ -32715,13 +33027,13 @@
         <v>21</v>
       </c>
       <c r="AG264" t="s" s="2">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="AH264" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI264" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ264" t="s" s="2">
         <v>21</v>
@@ -32735,10 +33047,10 @@
         <v>954</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>1063</v>
+        <v>1069</v>
       </c>
       <c r="C265" t="s" s="2">
-        <v>1063</v>
+        <v>1069</v>
       </c>
       <c r="D265" s="2"/>
       <c r="E265" t="s" s="2">
@@ -32761,17 +33073,17 @@
         <v>21</v>
       </c>
       <c r="L265" t="s" s="2">
-        <v>101</v>
+        <v>1023</v>
       </c>
       <c r="M265" t="s" s="2">
-        <v>994</v>
+        <v>1070</v>
       </c>
       <c r="N265" t="s" s="2">
-        <v>1064</v>
+        <v>1071</v>
       </c>
       <c r="O265" s="2"/>
       <c r="P265" t="s" s="2">
-        <v>1065</v>
+        <v>1072</v>
       </c>
       <c r="Q265" t="s" s="2">
         <v>21</v>
@@ -32796,13 +33108,13 @@
         <v>21</v>
       </c>
       <c r="Y265" t="s" s="2">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="Z265" t="s" s="2">
-        <v>998</v>
+        <v>21</v>
       </c>
       <c r="AA265" t="s" s="2">
-        <v>999</v>
+        <v>21</v>
       </c>
       <c r="AB265" t="s" s="2">
         <v>21</v>
@@ -32820,7 +33132,7 @@
         <v>21</v>
       </c>
       <c r="AG265" t="s" s="2">
-        <v>1063</v>
+        <v>1069</v>
       </c>
       <c r="AH265" t="s" s="2">
         <v>74</v>
@@ -32840,10 +33152,10 @@
         <v>954</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>1066</v>
+        <v>1073</v>
       </c>
       <c r="C266" t="s" s="2">
-        <v>1066</v>
+        <v>1073</v>
       </c>
       <c r="D266" s="2"/>
       <c r="E266" t="s" s="2">
@@ -32866,17 +33178,17 @@
         <v>21</v>
       </c>
       <c r="L266" t="s" s="2">
-        <v>655</v>
+        <v>101</v>
       </c>
       <c r="M266" t="s" s="2">
-        <v>1067</v>
+        <v>1004</v>
       </c>
       <c r="N266" t="s" s="2">
-        <v>1068</v>
+        <v>1074</v>
       </c>
       <c r="O266" s="2"/>
       <c r="P266" t="s" s="2">
-        <v>1069</v>
+        <v>1075</v>
       </c>
       <c r="Q266" t="s" s="2">
         <v>21</v>
@@ -32901,13 +33213,13 @@
         <v>21</v>
       </c>
       <c r="Y266" t="s" s="2">
-        <v>21</v>
+        <v>147</v>
       </c>
       <c r="Z266" t="s" s="2">
-        <v>21</v>
+        <v>1008</v>
       </c>
       <c r="AA266" t="s" s="2">
-        <v>21</v>
+        <v>1009</v>
       </c>
       <c r="AB266" t="s" s="2">
         <v>21</v>
@@ -32925,7 +33237,7 @@
         <v>21</v>
       </c>
       <c r="AG266" t="s" s="2">
-        <v>1066</v>
+        <v>1073</v>
       </c>
       <c r="AH266" t="s" s="2">
         <v>74</v>
@@ -32934,7 +33246,7 @@
         <v>81</v>
       </c>
       <c r="AJ266" t="s" s="2">
-        <v>1070</v>
+        <v>21</v>
       </c>
       <c r="AK266" t="s" s="2">
         <v>93</v>
@@ -32945,10 +33257,10 @@
         <v>954</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>1071</v>
+        <v>1076</v>
       </c>
       <c r="C267" t="s" s="2">
-        <v>1071</v>
+        <v>1076</v>
       </c>
       <c r="D267" s="2"/>
       <c r="E267" t="s" s="2">
@@ -32971,16 +33283,18 @@
         <v>21</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>340</v>
+        <v>655</v>
       </c>
       <c r="M267" t="s" s="2">
-        <v>1072</v>
+        <v>1077</v>
       </c>
       <c r="N267" t="s" s="2">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="O267" s="2"/>
-      <c r="P267" s="2"/>
+      <c r="P267" t="s" s="2">
+        <v>1079</v>
+      </c>
       <c r="Q267" t="s" s="2">
         <v>21</v>
       </c>
@@ -33028,7 +33342,7 @@
         <v>21</v>
       </c>
       <c r="AG267" t="s" s="2">
-        <v>1071</v>
+        <v>1076</v>
       </c>
       <c r="AH267" t="s" s="2">
         <v>74</v>
@@ -33037,7 +33351,7 @@
         <v>81</v>
       </c>
       <c r="AJ267" t="s" s="2">
-        <v>21</v>
+        <v>1080</v>
       </c>
       <c r="AK267" t="s" s="2">
         <v>93</v>
@@ -33048,10 +33362,10 @@
         <v>954</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>1074</v>
+        <v>1081</v>
       </c>
       <c r="C268" t="s" s="2">
-        <v>1074</v>
+        <v>1081</v>
       </c>
       <c r="D268" s="2"/>
       <c r="E268" t="s" s="2">
@@ -33062,7 +33376,7 @@
         <v>74</v>
       </c>
       <c r="H268" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I268" t="s" s="2">
         <v>21</v>
@@ -33074,20 +33388,16 @@
         <v>21</v>
       </c>
       <c r="L268" t="s" s="2">
-        <v>216</v>
+        <v>340</v>
       </c>
       <c r="M268" t="s" s="2">
-        <v>1075</v>
+        <v>1082</v>
       </c>
       <c r="N268" t="s" s="2">
-        <v>1076</v>
-      </c>
-      <c r="O268" t="s" s="2">
-        <v>1077</v>
-      </c>
-      <c r="P268" t="s" s="2">
-        <v>1078</v>
-      </c>
+        <v>1083</v>
+      </c>
+      <c r="O268" s="2"/>
+      <c r="P268" s="2"/>
       <c r="Q268" t="s" s="2">
         <v>21</v>
       </c>
@@ -33135,13 +33445,13 @@
         <v>21</v>
       </c>
       <c r="AG268" t="s" s="2">
-        <v>1074</v>
+        <v>1081</v>
       </c>
       <c r="AH268" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI268" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ268" t="s" s="2">
         <v>21</v>
@@ -33155,10 +33465,10 @@
         <v>954</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>1079</v>
+        <v>1084</v>
       </c>
       <c r="C269" t="s" s="2">
-        <v>1079</v>
+        <v>1084</v>
       </c>
       <c r="D269" s="2"/>
       <c r="E269" t="s" s="2">
@@ -33169,7 +33479,7 @@
         <v>74</v>
       </c>
       <c r="H269" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I269" t="s" s="2">
         <v>21</v>
@@ -33181,16 +33491,20 @@
         <v>21</v>
       </c>
       <c r="L269" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="M269" t="s" s="2">
-        <v>222</v>
+        <v>1085</v>
       </c>
       <c r="N269" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="O269" s="2"/>
-      <c r="P269" s="2"/>
+        <v>1086</v>
+      </c>
+      <c r="O269" t="s" s="2">
+        <v>1087</v>
+      </c>
+      <c r="P269" t="s" s="2">
+        <v>1088</v>
+      </c>
       <c r="Q269" t="s" s="2">
         <v>21</v>
       </c>
@@ -33238,19 +33552,19 @@
         <v>21</v>
       </c>
       <c r="AG269" t="s" s="2">
-        <v>224</v>
+        <v>1084</v>
       </c>
       <c r="AH269" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI269" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ269" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AK269" t="s" s="2">
-        <v>21</v>
+        <v>93</v>
       </c>
     </row>
     <row r="270">
@@ -33258,21 +33572,21 @@
         <v>954</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>1080</v>
+        <v>1089</v>
       </c>
       <c r="C270" t="s" s="2">
-        <v>1080</v>
+        <v>1089</v>
       </c>
       <c r="D270" s="2"/>
       <c r="E270" t="s" s="2">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="F270" s="2"/>
       <c r="G270" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H270" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I270" t="s" s="2">
         <v>21</v>
@@ -33284,17 +33598,15 @@
         <v>21</v>
       </c>
       <c r="L270" t="s" s="2">
-        <v>125</v>
+        <v>221</v>
       </c>
       <c r="M270" t="s" s="2">
-        <v>126</v>
+        <v>222</v>
       </c>
       <c r="N270" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="O270" t="s" s="2">
-        <v>128</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="O270" s="2"/>
       <c r="P270" s="2"/>
       <c r="Q270" t="s" s="2">
         <v>21</v>
@@ -33343,19 +33655,19 @@
         <v>21</v>
       </c>
       <c r="AG270" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AH270" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI270" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ270" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AK270" t="s" s="2">
-        <v>130</v>
+        <v>21</v>
       </c>
     </row>
     <row r="271">
@@ -33363,14 +33675,14 @@
         <v>954</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>1081</v>
+        <v>1090</v>
       </c>
       <c r="C271" t="s" s="2">
-        <v>1081</v>
+        <v>1090</v>
       </c>
       <c r="D271" s="2"/>
       <c r="E271" t="s" s="2">
-        <v>229</v>
+        <v>124</v>
       </c>
       <c r="F271" s="2"/>
       <c r="G271" t="s" s="2">
@@ -33383,26 +33695,24 @@
         <v>21</v>
       </c>
       <c r="J271" t="s" s="2">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="K271" t="s" s="2">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="L271" t="s" s="2">
         <v>125</v>
       </c>
       <c r="M271" t="s" s="2">
-        <v>230</v>
+        <v>126</v>
       </c>
       <c r="N271" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="O271" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="P271" t="s" s="2">
-        <v>134</v>
-      </c>
+      <c r="P271" s="2"/>
       <c r="Q271" t="s" s="2">
         <v>21</v>
       </c>
@@ -33450,7 +33760,7 @@
         <v>21</v>
       </c>
       <c r="AG271" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="AH271" t="s" s="2">
         <v>74</v>
@@ -33470,45 +33780,45 @@
         <v>954</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>1082</v>
+        <v>1091</v>
       </c>
       <c r="C272" t="s" s="2">
-        <v>1082</v>
+        <v>1091</v>
       </c>
       <c r="D272" s="2"/>
       <c r="E272" t="s" s="2">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="F272" s="2"/>
       <c r="G272" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H272" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I272" t="s" s="2">
         <v>21</v>
       </c>
       <c r="J272" t="s" s="2">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="K272" t="s" s="2">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="L272" t="s" s="2">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="M272" t="s" s="2">
-        <v>1083</v>
+        <v>230</v>
       </c>
       <c r="N272" t="s" s="2">
-        <v>1084</v>
+        <v>231</v>
       </c>
       <c r="O272" t="s" s="2">
-        <v>1085</v>
+        <v>128</v>
       </c>
       <c r="P272" t="s" s="2">
-        <v>1086</v>
+        <v>134</v>
       </c>
       <c r="Q272" t="s" s="2">
         <v>21</v>
@@ -33533,13 +33843,13 @@
         <v>21</v>
       </c>
       <c r="Y272" t="s" s="2">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="Z272" t="s" s="2">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="AA272" t="s" s="2">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="AB272" t="s" s="2">
         <v>21</v>
@@ -33557,19 +33867,19 @@
         <v>21</v>
       </c>
       <c r="AG272" t="s" s="2">
-        <v>1082</v>
+        <v>232</v>
       </c>
       <c r="AH272" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AI272" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ272" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AK272" t="s" s="2">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="273">
@@ -33577,10 +33887,10 @@
         <v>954</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>1087</v>
+        <v>1092</v>
       </c>
       <c r="C273" t="s" s="2">
-        <v>1087</v>
+        <v>1092</v>
       </c>
       <c r="D273" s="2"/>
       <c r="E273" t="s" s="2">
@@ -33588,7 +33898,7 @@
       </c>
       <c r="F273" s="2"/>
       <c r="G273" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H273" t="s" s="2">
         <v>81</v>
@@ -33603,19 +33913,19 @@
         <v>21</v>
       </c>
       <c r="L273" t="s" s="2">
-        <v>421</v>
+        <v>143</v>
       </c>
       <c r="M273" t="s" s="2">
-        <v>1088</v>
+        <v>1093</v>
       </c>
       <c r="N273" t="s" s="2">
-        <v>1089</v>
+        <v>1094</v>
       </c>
       <c r="O273" t="s" s="2">
-        <v>1090</v>
+        <v>1095</v>
       </c>
       <c r="P273" t="s" s="2">
-        <v>1091</v>
+        <v>1096</v>
       </c>
       <c r="Q273" t="s" s="2">
         <v>21</v>
@@ -33640,13 +33950,13 @@
         <v>21</v>
       </c>
       <c r="Y273" t="s" s="2">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="Z273" t="s" s="2">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="AA273" t="s" s="2">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="AB273" t="s" s="2">
         <v>21</v>
@@ -33664,10 +33974,10 @@
         <v>21</v>
       </c>
       <c r="AG273" t="s" s="2">
-        <v>1087</v>
+        <v>1092</v>
       </c>
       <c r="AH273" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AI273" t="s" s="2">
         <v>81</v>
@@ -33684,21 +33994,21 @@
         <v>954</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>1092</v>
+        <v>1097</v>
       </c>
       <c r="C274" t="s" s="2">
-        <v>1092</v>
+        <v>1097</v>
       </c>
       <c r="D274" s="2"/>
       <c r="E274" t="s" s="2">
-        <v>1093</v>
+        <v>21</v>
       </c>
       <c r="F274" s="2"/>
       <c r="G274" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H274" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I274" t="s" s="2">
         <v>21</v>
@@ -33710,18 +34020,20 @@
         <v>21</v>
       </c>
       <c r="L274" t="s" s="2">
-        <v>1094</v>
+        <v>421</v>
       </c>
       <c r="M274" t="s" s="2">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="N274" t="s" s="2">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="O274" t="s" s="2">
-        <v>1097</v>
-      </c>
-      <c r="P274" s="2"/>
+        <v>1100</v>
+      </c>
+      <c r="P274" t="s" s="2">
+        <v>1101</v>
+      </c>
       <c r="Q274" t="s" s="2">
         <v>21</v>
       </c>
@@ -33769,13 +34081,13 @@
         <v>21</v>
       </c>
       <c r="AG274" t="s" s="2">
-        <v>1092</v>
+        <v>1097</v>
       </c>
       <c r="AH274" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI274" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ274" t="s" s="2">
         <v>21</v>
@@ -33789,21 +34101,21 @@
         <v>954</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>1098</v>
+        <v>1102</v>
       </c>
       <c r="C275" t="s" s="2">
-        <v>1098</v>
+        <v>1102</v>
       </c>
       <c r="D275" s="2"/>
       <c r="E275" t="s" s="2">
-        <v>21</v>
+        <v>1103</v>
       </c>
       <c r="F275" s="2"/>
       <c r="G275" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H275" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I275" t="s" s="2">
         <v>21</v>
@@ -33812,23 +34124,21 @@
         <v>21</v>
       </c>
       <c r="K275" t="s" s="2">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="L275" t="s" s="2">
-        <v>655</v>
+        <v>1104</v>
       </c>
       <c r="M275" t="s" s="2">
-        <v>1099</v>
+        <v>1105</v>
       </c>
       <c r="N275" t="s" s="2">
-        <v>1100</v>
+        <v>1106</v>
       </c>
       <c r="O275" t="s" s="2">
-        <v>1101</v>
-      </c>
-      <c r="P275" t="s" s="2">
-        <v>1102</v>
-      </c>
+        <v>1107</v>
+      </c>
+      <c r="P275" s="2"/>
       <c r="Q275" t="s" s="2">
         <v>21</v>
       </c>
@@ -33876,13 +34186,13 @@
         <v>21</v>
       </c>
       <c r="AG275" t="s" s="2">
-        <v>1098</v>
+        <v>1102</v>
       </c>
       <c r="AH275" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI275" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ275" t="s" s="2">
         <v>21</v>
@@ -33896,10 +34206,10 @@
         <v>954</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>1103</v>
+        <v>1108</v>
       </c>
       <c r="C276" t="s" s="2">
-        <v>1103</v>
+        <v>1108</v>
       </c>
       <c r="D276" s="2"/>
       <c r="E276" t="s" s="2">
@@ -33910,31 +34220,31 @@
         <v>74</v>
       </c>
       <c r="H276" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I276" t="s" s="2">
         <v>21</v>
       </c>
       <c r="J276" t="s" s="2">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="K276" t="s" s="2">
         <v>82</v>
       </c>
       <c r="L276" t="s" s="2">
-        <v>216</v>
+        <v>655</v>
       </c>
       <c r="M276" t="s" s="2">
-        <v>1104</v>
+        <v>1109</v>
       </c>
       <c r="N276" t="s" s="2">
-        <v>1105</v>
+        <v>1110</v>
       </c>
       <c r="O276" t="s" s="2">
-        <v>1106</v>
+        <v>1111</v>
       </c>
       <c r="P276" t="s" s="2">
-        <v>1107</v>
+        <v>1112</v>
       </c>
       <c r="Q276" t="s" s="2">
         <v>21</v>
@@ -33983,13 +34293,13 @@
         <v>21</v>
       </c>
       <c r="AG276" t="s" s="2">
-        <v>1103</v>
+        <v>1108</v>
       </c>
       <c r="AH276" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI276" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ276" t="s" s="2">
         <v>21</v>
@@ -34003,10 +34313,10 @@
         <v>954</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>1108</v>
+        <v>1113</v>
       </c>
       <c r="C277" t="s" s="2">
-        <v>1108</v>
+        <v>1113</v>
       </c>
       <c r="D277" s="2"/>
       <c r="E277" t="s" s="2">
@@ -34017,28 +34327,32 @@
         <v>74</v>
       </c>
       <c r="H277" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I277" t="s" s="2">
         <v>21</v>
       </c>
       <c r="J277" t="s" s="2">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="K277" t="s" s="2">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="L277" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="M277" t="s" s="2">
-        <v>222</v>
+        <v>1114</v>
       </c>
       <c r="N277" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="O277" s="2"/>
-      <c r="P277" s="2"/>
+        <v>1115</v>
+      </c>
+      <c r="O277" t="s" s="2">
+        <v>1116</v>
+      </c>
+      <c r="P277" t="s" s="2">
+        <v>1117</v>
+      </c>
       <c r="Q277" t="s" s="2">
         <v>21</v>
       </c>
@@ -34086,19 +34400,19 @@
         <v>21</v>
       </c>
       <c r="AG277" t="s" s="2">
-        <v>224</v>
+        <v>1113</v>
       </c>
       <c r="AH277" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI277" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ277" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AK277" t="s" s="2">
-        <v>21</v>
+        <v>93</v>
       </c>
     </row>
     <row r="278">
@@ -34106,21 +34420,21 @@
         <v>954</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>1109</v>
+        <v>1118</v>
       </c>
       <c r="C278" t="s" s="2">
-        <v>1109</v>
+        <v>1118</v>
       </c>
       <c r="D278" s="2"/>
       <c r="E278" t="s" s="2">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="F278" s="2"/>
       <c r="G278" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H278" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I278" t="s" s="2">
         <v>21</v>
@@ -34132,17 +34446,15 @@
         <v>21</v>
       </c>
       <c r="L278" t="s" s="2">
-        <v>125</v>
+        <v>221</v>
       </c>
       <c r="M278" t="s" s="2">
-        <v>126</v>
+        <v>222</v>
       </c>
       <c r="N278" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="O278" t="s" s="2">
-        <v>128</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="O278" s="2"/>
       <c r="P278" s="2"/>
       <c r="Q278" t="s" s="2">
         <v>21</v>
@@ -34191,19 +34503,19 @@
         <v>21</v>
       </c>
       <c r="AG278" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AH278" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI278" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ278" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AK278" t="s" s="2">
-        <v>130</v>
+        <v>21</v>
       </c>
     </row>
     <row r="279">
@@ -34211,14 +34523,14 @@
         <v>954</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>1110</v>
+        <v>1119</v>
       </c>
       <c r="C279" t="s" s="2">
-        <v>1110</v>
+        <v>1119</v>
       </c>
       <c r="D279" s="2"/>
       <c r="E279" t="s" s="2">
-        <v>229</v>
+        <v>124</v>
       </c>
       <c r="F279" s="2"/>
       <c r="G279" t="s" s="2">
@@ -34231,26 +34543,24 @@
         <v>21</v>
       </c>
       <c r="J279" t="s" s="2">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="K279" t="s" s="2">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="L279" t="s" s="2">
         <v>125</v>
       </c>
       <c r="M279" t="s" s="2">
-        <v>230</v>
+        <v>126</v>
       </c>
       <c r="N279" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="O279" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="P279" t="s" s="2">
-        <v>134</v>
-      </c>
+      <c r="P279" s="2"/>
       <c r="Q279" t="s" s="2">
         <v>21</v>
       </c>
@@ -34298,7 +34608,7 @@
         <v>21</v>
       </c>
       <c r="AG279" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="AH279" t="s" s="2">
         <v>74</v>
@@ -34318,44 +34628,46 @@
         <v>954</v>
       </c>
       <c r="B280" t="s" s="2">
-        <v>1111</v>
+        <v>1120</v>
       </c>
       <c r="C280" t="s" s="2">
-        <v>1111</v>
+        <v>1120</v>
       </c>
       <c r="D280" s="2"/>
       <c r="E280" t="s" s="2">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="F280" s="2"/>
       <c r="G280" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H280" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I280" t="s" s="2">
         <v>21</v>
       </c>
       <c r="J280" t="s" s="2">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="K280" t="s" s="2">
         <v>82</v>
       </c>
       <c r="L280" t="s" s="2">
-        <v>313</v>
+        <v>125</v>
       </c>
       <c r="M280" t="s" s="2">
-        <v>1112</v>
+        <v>230</v>
       </c>
       <c r="N280" t="s" s="2">
-        <v>1113</v>
+        <v>231</v>
       </c>
       <c r="O280" t="s" s="2">
-        <v>1114</v>
-      </c>
-      <c r="P280" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="P280" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="Q280" t="s" s="2">
         <v>21</v>
       </c>
@@ -34403,19 +34715,19 @@
         <v>21</v>
       </c>
       <c r="AG280" t="s" s="2">
-        <v>1111</v>
+        <v>232</v>
       </c>
       <c r="AH280" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AI280" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ280" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AK280" t="s" s="2">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="281">
@@ -34423,10 +34735,10 @@
         <v>954</v>
       </c>
       <c r="B281" t="s" s="2">
-        <v>1115</v>
+        <v>1121</v>
       </c>
       <c r="C281" t="s" s="2">
-        <v>1115</v>
+        <v>1121</v>
       </c>
       <c r="D281" s="2"/>
       <c r="E281" t="s" s="2">
@@ -34449,15 +34761,17 @@
         <v>82</v>
       </c>
       <c r="L281" t="s" s="2">
-        <v>101</v>
+        <v>313</v>
       </c>
       <c r="M281" t="s" s="2">
-        <v>1116</v>
+        <v>1122</v>
       </c>
       <c r="N281" t="s" s="2">
-        <v>1117</v>
-      </c>
-      <c r="O281" s="2"/>
+        <v>1123</v>
+      </c>
+      <c r="O281" t="s" s="2">
+        <v>1124</v>
+      </c>
       <c r="P281" s="2"/>
       <c r="Q281" t="s" s="2">
         <v>21</v>
@@ -34482,13 +34796,13 @@
         <v>21</v>
       </c>
       <c r="Y281" t="s" s="2">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="Z281" t="s" s="2">
-        <v>1117</v>
+        <v>21</v>
       </c>
       <c r="AA281" t="s" s="2">
-        <v>1118</v>
+        <v>21</v>
       </c>
       <c r="AB281" t="s" s="2">
         <v>21</v>
@@ -34506,7 +34820,7 @@
         <v>21</v>
       </c>
       <c r="AG281" t="s" s="2">
-        <v>1115</v>
+        <v>1121</v>
       </c>
       <c r="AH281" t="s" s="2">
         <v>81</v>
@@ -34523,13 +34837,13 @@
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>1119</v>
+        <v>954</v>
       </c>
       <c r="B282" t="s" s="2">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="C282" t="s" s="2">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="D282" s="2"/>
       <c r="E282" t="s" s="2">
@@ -34537,10 +34851,10 @@
       </c>
       <c r="F282" s="2"/>
       <c r="G282" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H282" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I282" t="s" s="2">
         <v>21</v>
@@ -34549,16 +34863,16 @@
         <v>21</v>
       </c>
       <c r="K282" t="s" s="2">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="L282" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="M282" t="s" s="2">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="N282" t="s" s="2">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="O282" s="2"/>
       <c r="P282" s="2"/>
@@ -34585,13 +34899,13 @@
         <v>21</v>
       </c>
       <c r="Y282" t="s" s="2">
-        <v>21</v>
+        <v>147</v>
       </c>
       <c r="Z282" t="s" s="2">
-        <v>21</v>
+        <v>1127</v>
       </c>
       <c r="AA282" t="s" s="2">
-        <v>21</v>
+        <v>1128</v>
       </c>
       <c r="AB282" t="s" s="2">
         <v>21</v>
@@ -34609,30 +34923,30 @@
         <v>21</v>
       </c>
       <c r="AG282" t="s" s="2">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="AH282" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AI282" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ282" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AK282" t="s" s="2">
-        <v>279</v>
+        <v>93</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>1119</v>
+        <v>1129</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>1127</v>
+        <v>1133</v>
       </c>
       <c r="C283" t="s" s="2">
-        <v>1127</v>
+        <v>1133</v>
       </c>
       <c r="D283" s="2"/>
       <c r="E283" t="s" s="2">
@@ -34643,7 +34957,7 @@
         <v>74</v>
       </c>
       <c r="H283" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I283" t="s" s="2">
         <v>21</v>
@@ -34652,20 +34966,18 @@
         <v>21</v>
       </c>
       <c r="K283" t="s" s="2">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="L283" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="M283" t="s" s="2">
-        <v>84</v>
+        <v>1135</v>
       </c>
       <c r="N283" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="O283" t="s" s="2">
-        <v>86</v>
-      </c>
+        <v>1136</v>
+      </c>
+      <c r="O283" s="2"/>
       <c r="P283" s="2"/>
       <c r="Q283" t="s" s="2">
         <v>21</v>
@@ -34714,30 +35026,30 @@
         <v>21</v>
       </c>
       <c r="AG283" t="s" s="2">
-        <v>87</v>
+        <v>1133</v>
       </c>
       <c r="AH283" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI283" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ283" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AK283" t="s" s="2">
-        <v>21</v>
+        <v>279</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>1119</v>
+        <v>1129</v>
       </c>
       <c r="B284" t="s" s="2">
-        <v>1128</v>
+        <v>1137</v>
       </c>
       <c r="C284" t="s" s="2">
-        <v>1128</v>
+        <v>1137</v>
       </c>
       <c r="D284" s="2"/>
       <c r="E284" t="s" s="2">
@@ -34760,15 +35072,17 @@
         <v>82</v>
       </c>
       <c r="L284" t="s" s="2">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="M284" t="s" s="2">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="N284" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="O284" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="O284" t="s" s="2">
+        <v>86</v>
+      </c>
       <c r="P284" s="2"/>
       <c r="Q284" t="s" s="2">
         <v>21</v>
@@ -34817,7 +35131,7 @@
         <v>21</v>
       </c>
       <c r="AG284" t="s" s="2">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AH284" t="s" s="2">
         <v>74</v>
@@ -34829,18 +35143,18 @@
         <v>21</v>
       </c>
       <c r="AK284" t="s" s="2">
-        <v>93</v>
+        <v>21</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>1119</v>
+        <v>1129</v>
       </c>
       <c r="B285" t="s" s="2">
-        <v>1129</v>
+        <v>1138</v>
       </c>
       <c r="C285" t="s" s="2">
-        <v>1129</v>
+        <v>1138</v>
       </c>
       <c r="D285" s="2"/>
       <c r="E285" t="s" s="2">
@@ -34857,23 +35171,21 @@
         <v>21</v>
       </c>
       <c r="J285" t="s" s="2">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="K285" t="s" s="2">
         <v>82</v>
       </c>
       <c r="L285" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="M285" t="s" s="2">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N285" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="O285" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="O285" s="2"/>
       <c r="P285" s="2"/>
       <c r="Q285" t="s" s="2">
         <v>21</v>
@@ -34922,7 +35234,7 @@
         <v>21</v>
       </c>
       <c r="AG285" t="s" s="2">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="AH285" t="s" s="2">
         <v>74</v>
@@ -34939,13 +35251,13 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>1119</v>
+        <v>1129</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>1130</v>
+        <v>1139</v>
       </c>
       <c r="C286" t="s" s="2">
-        <v>1130</v>
+        <v>1139</v>
       </c>
       <c r="D286" s="2"/>
       <c r="E286" t="s" s="2">
@@ -34962,22 +35274,22 @@
         <v>21</v>
       </c>
       <c r="J286" t="s" s="2">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="K286" t="s" s="2">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="L286" t="s" s="2">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="M286" t="s" s="2">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="N286" t="s" s="2">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="O286" t="s" s="2">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="P286" s="2"/>
       <c r="Q286" t="s" s="2">
@@ -35003,13 +35315,13 @@
         <v>21</v>
       </c>
       <c r="Y286" t="s" s="2">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="Z286" t="s" s="2">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="AA286" t="s" s="2">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="AB286" t="s" s="2">
         <v>21</v>
@@ -35027,7 +35339,7 @@
         <v>21</v>
       </c>
       <c r="AG286" t="s" s="2">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="AH286" t="s" s="2">
         <v>74</v>
@@ -35044,17 +35356,17 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>1119</v>
+        <v>1129</v>
       </c>
       <c r="B287" t="s" s="2">
-        <v>1131</v>
+        <v>1140</v>
       </c>
       <c r="C287" t="s" s="2">
-        <v>1131</v>
+        <v>1140</v>
       </c>
       <c r="D287" s="2"/>
       <c r="E287" t="s" s="2">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="F287" s="2"/>
       <c r="G287" t="s" s="2">
@@ -35073,16 +35385,16 @@
         <v>21</v>
       </c>
       <c r="L287" t="s" s="2">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="M287" t="s" s="2">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="N287" t="s" s="2">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="O287" t="s" s="2">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="P287" s="2"/>
       <c r="Q287" t="s" s="2">
@@ -35108,13 +35420,13 @@
         <v>21</v>
       </c>
       <c r="Y287" t="s" s="2">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="Z287" t="s" s="2">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="AA287" t="s" s="2">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="AB287" t="s" s="2">
         <v>21</v>
@@ -35132,7 +35444,7 @@
         <v>21</v>
       </c>
       <c r="AG287" t="s" s="2">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="AH287" t="s" s="2">
         <v>74</v>
@@ -35149,24 +35461,24 @@
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>1119</v>
+        <v>1129</v>
       </c>
       <c r="B288" t="s" s="2">
-        <v>1132</v>
+        <v>1141</v>
       </c>
       <c r="C288" t="s" s="2">
-        <v>1132</v>
+        <v>1141</v>
       </c>
       <c r="D288" s="2"/>
       <c r="E288" t="s" s="2">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F288" s="2"/>
       <c r="G288" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H288" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I288" t="s" s="2">
         <v>21</v>
@@ -35178,16 +35490,16 @@
         <v>21</v>
       </c>
       <c r="L288" t="s" s="2">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="M288" t="s" s="2">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="N288" t="s" s="2">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="O288" t="s" s="2">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="P288" s="2"/>
       <c r="Q288" t="s" s="2">
@@ -35237,34 +35549,34 @@
         <v>21</v>
       </c>
       <c r="AG288" t="s" s="2">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="AH288" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI288" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ288" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AK288" t="s" s="2">
-        <v>21</v>
+        <v>93</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>1119</v>
+        <v>1129</v>
       </c>
       <c r="B289" t="s" s="2">
-        <v>1133</v>
+        <v>1142</v>
       </c>
       <c r="C289" t="s" s="2">
-        <v>1133</v>
+        <v>1142</v>
       </c>
       <c r="D289" s="2"/>
       <c r="E289" t="s" s="2">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F289" s="2"/>
       <c r="G289" t="s" s="2">
@@ -35283,16 +35595,16 @@
         <v>21</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="M289" t="s" s="2">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="N289" t="s" s="2">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="O289" t="s" s="2">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="P289" s="2"/>
       <c r="Q289" t="s" s="2">
@@ -35342,7 +35654,7 @@
         <v>21</v>
       </c>
       <c r="AG289" t="s" s="2">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="AH289" t="s" s="2">
         <v>74</v>
@@ -35354,18 +35666,18 @@
         <v>21</v>
       </c>
       <c r="AK289" t="s" s="2">
-        <v>130</v>
+        <v>21</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>1119</v>
+        <v>1129</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>1134</v>
+        <v>1143</v>
       </c>
       <c r="C290" t="s" s="2">
-        <v>1134</v>
+        <v>1143</v>
       </c>
       <c r="D290" s="2"/>
       <c r="E290" t="s" s="2">
@@ -35382,7 +35694,7 @@
         <v>21</v>
       </c>
       <c r="J290" t="s" s="2">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="K290" t="s" s="2">
         <v>21</v>
@@ -35391,17 +35703,15 @@
         <v>125</v>
       </c>
       <c r="M290" t="s" s="2">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="N290" t="s" s="2">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="O290" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="P290" t="s" s="2">
-        <v>134</v>
-      </c>
+      <c r="P290" s="2"/>
       <c r="Q290" t="s" s="2">
         <v>21</v>
       </c>
@@ -35449,7 +35759,7 @@
         <v>21</v>
       </c>
       <c r="AG290" t="s" s="2">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="AH290" t="s" s="2">
         <v>74</v>
@@ -35466,17 +35776,17 @@
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>1119</v>
+        <v>1129</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>1135</v>
+        <v>1144</v>
       </c>
       <c r="C291" t="s" s="2">
-        <v>1135</v>
+        <v>1144</v>
       </c>
       <c r="D291" s="2"/>
       <c r="E291" t="s" s="2">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="F291" s="2"/>
       <c r="G291" t="s" s="2">
@@ -35489,23 +35799,25 @@
         <v>21</v>
       </c>
       <c r="J291" t="s" s="2">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="K291" t="s" s="2">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="L291" t="s" s="2">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="M291" t="s" s="2">
-        <v>1136</v>
+        <v>132</v>
       </c>
       <c r="N291" t="s" s="2">
-        <v>1137</v>
-      </c>
-      <c r="O291" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="O291" t="s" s="2">
+        <v>128</v>
+      </c>
       <c r="P291" t="s" s="2">
-        <v>1138</v>
+        <v>134</v>
       </c>
       <c r="Q291" t="s" s="2">
         <v>21</v>
@@ -35554,7 +35866,7 @@
         <v>21</v>
       </c>
       <c r="AG291" t="s" s="2">
-        <v>1135</v>
+        <v>135</v>
       </c>
       <c r="AH291" t="s" s="2">
         <v>74</v>
@@ -35566,18 +35878,18 @@
         <v>21</v>
       </c>
       <c r="AK291" t="s" s="2">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
-        <v>1119</v>
+        <v>1129</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>1139</v>
+        <v>1145</v>
       </c>
       <c r="C292" t="s" s="2">
-        <v>1139</v>
+        <v>1145</v>
       </c>
       <c r="D292" s="2"/>
       <c r="E292" t="s" s="2">
@@ -35588,38 +35900,34 @@
         <v>74</v>
       </c>
       <c r="H292" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I292" t="s" s="2">
         <v>21</v>
       </c>
       <c r="J292" t="s" s="2">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="K292" t="s" s="2">
         <v>82</v>
       </c>
       <c r="L292" t="s" s="2">
-        <v>421</v>
+        <v>137</v>
       </c>
       <c r="M292" t="s" s="2">
-        <v>1140</v>
+        <v>1146</v>
       </c>
       <c r="N292" t="s" s="2">
-        <v>1141</v>
-      </c>
-      <c r="O292" t="s" s="2">
-        <v>1142</v>
-      </c>
+        <v>1147</v>
+      </c>
+      <c r="O292" s="2"/>
       <c r="P292" t="s" s="2">
-        <v>1143</v>
+        <v>1148</v>
       </c>
       <c r="Q292" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="R292" t="s" s="2">
-        <v>980</v>
-      </c>
+      <c r="R292" s="2"/>
       <c r="S292" t="s" s="2">
         <v>21</v>
       </c>
@@ -35663,13 +35971,13 @@
         <v>21</v>
       </c>
       <c r="AG292" t="s" s="2">
-        <v>1139</v>
+        <v>1145</v>
       </c>
       <c r="AH292" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI292" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ292" t="s" s="2">
         <v>21</v>
@@ -35680,13 +35988,13 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
-        <v>1119</v>
+        <v>1129</v>
       </c>
       <c r="B293" t="s" s="2">
-        <v>1144</v>
+        <v>1149</v>
       </c>
       <c r="C293" t="s" s="2">
-        <v>1144</v>
+        <v>1149</v>
       </c>
       <c r="D293" s="2"/>
       <c r="E293" t="s" s="2">
@@ -35694,37 +36002,41 @@
       </c>
       <c r="F293" s="2"/>
       <c r="G293" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H293" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I293" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="J293" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="J293" t="s" s="2">
-        <v>21</v>
       </c>
       <c r="K293" t="s" s="2">
         <v>82</v>
       </c>
       <c r="L293" t="s" s="2">
-        <v>323</v>
+        <v>421</v>
       </c>
       <c r="M293" t="s" s="2">
-        <v>1145</v>
+        <v>1150</v>
       </c>
       <c r="N293" t="s" s="2">
-        <v>1146</v>
-      </c>
-      <c r="O293" s="2"/>
+        <v>1151</v>
+      </c>
+      <c r="O293" t="s" s="2">
+        <v>1152</v>
+      </c>
       <c r="P293" t="s" s="2">
-        <v>1147</v>
+        <v>1153</v>
       </c>
       <c r="Q293" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="R293" s="2"/>
+      <c r="R293" t="s" s="2">
+        <v>990</v>
+      </c>
       <c r="S293" t="s" s="2">
         <v>21</v>
       </c>
@@ -35768,10 +36080,10 @@
         <v>21</v>
       </c>
       <c r="AG293" t="s" s="2">
-        <v>1144</v>
+        <v>1149</v>
       </c>
       <c r="AH293" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AI293" t="s" s="2">
         <v>81</v>
@@ -35785,13 +36097,13 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>1119</v>
+        <v>1129</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>1148</v>
+        <v>1154</v>
       </c>
       <c r="C294" t="s" s="2">
-        <v>1148</v>
+        <v>1154</v>
       </c>
       <c r="D294" s="2"/>
       <c r="E294" t="s" s="2">
@@ -35802,7 +36114,7 @@
         <v>81</v>
       </c>
       <c r="H294" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I294" t="s" s="2">
         <v>82</v>
@@ -35814,17 +36126,17 @@
         <v>82</v>
       </c>
       <c r="L294" t="s" s="2">
-        <v>143</v>
+        <v>323</v>
       </c>
       <c r="M294" t="s" s="2">
-        <v>1149</v>
+        <v>1155</v>
       </c>
       <c r="N294" t="s" s="2">
-        <v>1150</v>
+        <v>1156</v>
       </c>
       <c r="O294" s="2"/>
       <c r="P294" t="s" s="2">
-        <v>1151</v>
+        <v>1157</v>
       </c>
       <c r="Q294" t="s" s="2">
         <v>21</v>
@@ -35849,13 +36161,13 @@
         <v>21</v>
       </c>
       <c r="Y294" t="s" s="2">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="Z294" t="s" s="2">
-        <v>1150</v>
+        <v>21</v>
       </c>
       <c r="AA294" t="s" s="2">
-        <v>1152</v>
+        <v>21</v>
       </c>
       <c r="AB294" t="s" s="2">
         <v>21</v>
@@ -35873,13 +36185,13 @@
         <v>21</v>
       </c>
       <c r="AG294" t="s" s="2">
-        <v>1148</v>
+        <v>1154</v>
       </c>
       <c r="AH294" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AI294" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ294" t="s" s="2">
         <v>21</v>
@@ -35890,13 +36202,13 @@
     </row>
     <row r="295">
       <c r="A295" t="s" s="2">
-        <v>1119</v>
+        <v>1129</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>1153</v>
+        <v>1158</v>
       </c>
       <c r="C295" t="s" s="2">
-        <v>1153</v>
+        <v>1158</v>
       </c>
       <c r="D295" s="2"/>
       <c r="E295" t="s" s="2">
@@ -35904,13 +36216,13 @@
       </c>
       <c r="F295" s="2"/>
       <c r="G295" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H295" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I295" t="s" s="2">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="J295" t="s" s="2">
         <v>21</v>
@@ -35919,17 +36231,17 @@
         <v>82</v>
       </c>
       <c r="L295" t="s" s="2">
-        <v>982</v>
+        <v>143</v>
       </c>
       <c r="M295" t="s" s="2">
-        <v>1154</v>
+        <v>1159</v>
       </c>
       <c r="N295" t="s" s="2">
-        <v>1155</v>
+        <v>1160</v>
       </c>
       <c r="O295" s="2"/>
       <c r="P295" t="s" s="2">
-        <v>1156</v>
+        <v>1161</v>
       </c>
       <c r="Q295" t="s" s="2">
         <v>21</v>
@@ -35954,13 +36266,13 @@
         <v>21</v>
       </c>
       <c r="Y295" t="s" s="2">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="Z295" t="s" s="2">
-        <v>21</v>
+        <v>1160</v>
       </c>
       <c r="AA295" t="s" s="2">
-        <v>21</v>
+        <v>1162</v>
       </c>
       <c r="AB295" t="s" s="2">
         <v>21</v>
@@ -35978,7 +36290,7 @@
         <v>21</v>
       </c>
       <c r="AG295" t="s" s="2">
-        <v>1153</v>
+        <v>1158</v>
       </c>
       <c r="AH295" t="s" s="2">
         <v>74</v>
@@ -35995,13 +36307,13 @@
     </row>
     <row r="296">
       <c r="A296" t="s" s="2">
-        <v>1119</v>
+        <v>1129</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>1157</v>
+        <v>1163</v>
       </c>
       <c r="C296" t="s" s="2">
-        <v>1157</v>
+        <v>1163</v>
       </c>
       <c r="D296" s="2"/>
       <c r="E296" t="s" s="2">
@@ -36024,19 +36336,17 @@
         <v>82</v>
       </c>
       <c r="L296" t="s" s="2">
-        <v>988</v>
+        <v>992</v>
       </c>
       <c r="M296" t="s" s="2">
-        <v>1056</v>
+        <v>1164</v>
       </c>
       <c r="N296" t="s" s="2">
-        <v>1057</v>
-      </c>
-      <c r="O296" t="s" s="2">
-        <v>1158</v>
-      </c>
+        <v>1165</v>
+      </c>
+      <c r="O296" s="2"/>
       <c r="P296" t="s" s="2">
-        <v>992</v>
+        <v>1166</v>
       </c>
       <c r="Q296" t="s" s="2">
         <v>21</v>
@@ -36085,7 +36395,7 @@
         <v>21</v>
       </c>
       <c r="AG296" t="s" s="2">
-        <v>1157</v>
+        <v>1163</v>
       </c>
       <c r="AH296" t="s" s="2">
         <v>74</v>
@@ -36102,13 +36412,13 @@
     </row>
     <row r="297">
       <c r="A297" t="s" s="2">
-        <v>1119</v>
+        <v>1129</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>1159</v>
+        <v>1167</v>
       </c>
       <c r="C297" t="s" s="2">
-        <v>1159</v>
+        <v>1167</v>
       </c>
       <c r="D297" s="2"/>
       <c r="E297" t="s" s="2">
@@ -36119,7 +36429,7 @@
         <v>74</v>
       </c>
       <c r="H297" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I297" t="s" s="2">
         <v>21</v>
@@ -36131,17 +36441,19 @@
         <v>82</v>
       </c>
       <c r="L297" t="s" s="2">
-        <v>101</v>
+        <v>998</v>
       </c>
       <c r="M297" t="s" s="2">
-        <v>994</v>
+        <v>1066</v>
       </c>
       <c r="N297" t="s" s="2">
-        <v>1160</v>
-      </c>
-      <c r="O297" s="2"/>
+        <v>1067</v>
+      </c>
+      <c r="O297" t="s" s="2">
+        <v>1168</v>
+      </c>
       <c r="P297" t="s" s="2">
-        <v>1161</v>
+        <v>1002</v>
       </c>
       <c r="Q297" t="s" s="2">
         <v>21</v>
@@ -36166,13 +36478,13 @@
         <v>21</v>
       </c>
       <c r="Y297" t="s" s="2">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="Z297" t="s" s="2">
-        <v>998</v>
+        <v>21</v>
       </c>
       <c r="AA297" t="s" s="2">
-        <v>999</v>
+        <v>21</v>
       </c>
       <c r="AB297" t="s" s="2">
         <v>21</v>
@@ -36190,13 +36502,13 @@
         <v>21</v>
       </c>
       <c r="AG297" t="s" s="2">
-        <v>1159</v>
+        <v>1167</v>
       </c>
       <c r="AH297" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI297" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ297" t="s" s="2">
         <v>21</v>
@@ -36207,13 +36519,13 @@
     </row>
     <row r="298">
       <c r="A298" t="s" s="2">
-        <v>1119</v>
+        <v>1129</v>
       </c>
       <c r="B298" t="s" s="2">
-        <v>1162</v>
+        <v>1169</v>
       </c>
       <c r="C298" t="s" s="2">
-        <v>1162</v>
+        <v>1169</v>
       </c>
       <c r="D298" s="2"/>
       <c r="E298" t="s" s="2">
@@ -36236,16 +36548,18 @@
         <v>82</v>
       </c>
       <c r="L298" t="s" s="2">
-        <v>1001</v>
+        <v>101</v>
       </c>
       <c r="M298" t="s" s="2">
-        <v>1163</v>
+        <v>1004</v>
       </c>
       <c r="N298" t="s" s="2">
-        <v>1164</v>
+        <v>1170</v>
       </c>
       <c r="O298" s="2"/>
-      <c r="P298" s="2"/>
+      <c r="P298" t="s" s="2">
+        <v>1171</v>
+      </c>
       <c r="Q298" t="s" s="2">
         <v>21</v>
       </c>
@@ -36269,13 +36583,13 @@
         <v>21</v>
       </c>
       <c r="Y298" t="s" s="2">
-        <v>21</v>
+        <v>147</v>
       </c>
       <c r="Z298" t="s" s="2">
-        <v>21</v>
+        <v>1008</v>
       </c>
       <c r="AA298" t="s" s="2">
-        <v>21</v>
+        <v>1009</v>
       </c>
       <c r="AB298" t="s" s="2">
         <v>21</v>
@@ -36293,7 +36607,7 @@
         <v>21</v>
       </c>
       <c r="AG298" t="s" s="2">
-        <v>1162</v>
+        <v>1169</v>
       </c>
       <c r="AH298" t="s" s="2">
         <v>74</v>
@@ -36310,13 +36624,13 @@
     </row>
     <row r="299">
       <c r="A299" t="s" s="2">
-        <v>1119</v>
+        <v>1129</v>
       </c>
       <c r="B299" t="s" s="2">
-        <v>1165</v>
+        <v>1172</v>
       </c>
       <c r="C299" t="s" s="2">
-        <v>1165</v>
+        <v>1172</v>
       </c>
       <c r="D299" s="2"/>
       <c r="E299" t="s" s="2">
@@ -36327,7 +36641,7 @@
         <v>74</v>
       </c>
       <c r="H299" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I299" t="s" s="2">
         <v>21</v>
@@ -36339,18 +36653,16 @@
         <v>82</v>
       </c>
       <c r="L299" t="s" s="2">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="M299" t="s" s="2">
-        <v>1166</v>
+        <v>1173</v>
       </c>
       <c r="N299" t="s" s="2">
-        <v>1167</v>
+        <v>1174</v>
       </c>
       <c r="O299" s="2"/>
-      <c r="P299" t="s" s="2">
-        <v>1168</v>
-      </c>
+      <c r="P299" s="2"/>
       <c r="Q299" t="s" s="2">
         <v>21</v>
       </c>
@@ -36398,13 +36710,13 @@
         <v>21</v>
       </c>
       <c r="AG299" t="s" s="2">
-        <v>1165</v>
+        <v>1172</v>
       </c>
       <c r="AH299" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI299" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ299" t="s" s="2">
         <v>21</v>
@@ -36415,13 +36727,13 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
-        <v>1119</v>
+        <v>1129</v>
       </c>
       <c r="B300" t="s" s="2">
-        <v>1169</v>
+        <v>1175</v>
       </c>
       <c r="C300" t="s" s="2">
-        <v>1169</v>
+        <v>1175</v>
       </c>
       <c r="D300" s="2"/>
       <c r="E300" t="s" s="2">
@@ -36441,20 +36753,20 @@
         <v>21</v>
       </c>
       <c r="K300" t="s" s="2">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="L300" t="s" s="2">
-        <v>1031</v>
+        <v>1023</v>
       </c>
       <c r="M300" t="s" s="2">
-        <v>1170</v>
+        <v>1176</v>
       </c>
       <c r="N300" t="s" s="2">
-        <v>1171</v>
+        <v>1177</v>
       </c>
       <c r="O300" s="2"/>
       <c r="P300" t="s" s="2">
-        <v>1172</v>
+        <v>1178</v>
       </c>
       <c r="Q300" t="s" s="2">
         <v>21</v>
@@ -36503,7 +36815,7 @@
         <v>21</v>
       </c>
       <c r="AG300" t="s" s="2">
-        <v>1169</v>
+        <v>1175</v>
       </c>
       <c r="AH300" t="s" s="2">
         <v>74</v>
@@ -36520,13 +36832,13 @@
     </row>
     <row r="301">
       <c r="A301" t="s" s="2">
-        <v>1119</v>
+        <v>1129</v>
       </c>
       <c r="B301" t="s" s="2">
-        <v>1173</v>
+        <v>1179</v>
       </c>
       <c r="C301" t="s" s="2">
-        <v>1173</v>
+        <v>1179</v>
       </c>
       <c r="D301" s="2"/>
       <c r="E301" t="s" s="2">
@@ -36537,7 +36849,7 @@
         <v>74</v>
       </c>
       <c r="H301" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I301" t="s" s="2">
         <v>21</v>
@@ -36549,16 +36861,18 @@
         <v>21</v>
       </c>
       <c r="L301" t="s" s="2">
-        <v>340</v>
+        <v>1041</v>
       </c>
       <c r="M301" t="s" s="2">
-        <v>1174</v>
+        <v>1180</v>
       </c>
       <c r="N301" t="s" s="2">
-        <v>1175</v>
+        <v>1181</v>
       </c>
       <c r="O301" s="2"/>
-      <c r="P301" s="2"/>
+      <c r="P301" t="s" s="2">
+        <v>1182</v>
+      </c>
       <c r="Q301" t="s" s="2">
         <v>21</v>
       </c>
@@ -36606,13 +36920,13 @@
         <v>21</v>
       </c>
       <c r="AG301" t="s" s="2">
-        <v>1173</v>
+        <v>1179</v>
       </c>
       <c r="AH301" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI301" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ301" t="s" s="2">
         <v>21</v>
@@ -36623,13 +36937,13 @@
     </row>
     <row r="302">
       <c r="A302" t="s" s="2">
-        <v>1119</v>
+        <v>1129</v>
       </c>
       <c r="B302" t="s" s="2">
-        <v>1176</v>
+        <v>1183</v>
       </c>
       <c r="C302" t="s" s="2">
-        <v>1176</v>
+        <v>1183</v>
       </c>
       <c r="D302" s="2"/>
       <c r="E302" t="s" s="2">
@@ -36640,7 +36954,7 @@
         <v>74</v>
       </c>
       <c r="H302" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I302" t="s" s="2">
         <v>21</v>
@@ -36652,20 +36966,16 @@
         <v>21</v>
       </c>
       <c r="L302" t="s" s="2">
-        <v>216</v>
+        <v>340</v>
       </c>
       <c r="M302" t="s" s="2">
-        <v>1177</v>
+        <v>1184</v>
       </c>
       <c r="N302" t="s" s="2">
-        <v>1178</v>
-      </c>
-      <c r="O302" t="s" s="2">
-        <v>1179</v>
-      </c>
-      <c r="P302" t="s" s="2">
-        <v>1180</v>
-      </c>
+        <v>1185</v>
+      </c>
+      <c r="O302" s="2"/>
+      <c r="P302" s="2"/>
       <c r="Q302" t="s" s="2">
         <v>21</v>
       </c>
@@ -36713,13 +37023,13 @@
         <v>21</v>
       </c>
       <c r="AG302" t="s" s="2">
-        <v>1176</v>
+        <v>1183</v>
       </c>
       <c r="AH302" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI302" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ302" t="s" s="2">
         <v>21</v>
@@ -36730,13 +37040,13 @@
     </row>
     <row r="303">
       <c r="A303" t="s" s="2">
-        <v>1119</v>
+        <v>1129</v>
       </c>
       <c r="B303" t="s" s="2">
-        <v>1181</v>
+        <v>1186</v>
       </c>
       <c r="C303" t="s" s="2">
-        <v>1181</v>
+        <v>1186</v>
       </c>
       <c r="D303" s="2"/>
       <c r="E303" t="s" s="2">
@@ -36747,7 +37057,7 @@
         <v>74</v>
       </c>
       <c r="H303" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I303" t="s" s="2">
         <v>21</v>
@@ -36759,16 +37069,20 @@
         <v>21</v>
       </c>
       <c r="L303" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="M303" t="s" s="2">
-        <v>222</v>
+        <v>1187</v>
       </c>
       <c r="N303" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="O303" s="2"/>
-      <c r="P303" s="2"/>
+        <v>1188</v>
+      </c>
+      <c r="O303" t="s" s="2">
+        <v>1189</v>
+      </c>
+      <c r="P303" t="s" s="2">
+        <v>1190</v>
+      </c>
       <c r="Q303" t="s" s="2">
         <v>21</v>
       </c>
@@ -36816,41 +37130,41 @@
         <v>21</v>
       </c>
       <c r="AG303" t="s" s="2">
-        <v>224</v>
+        <v>1186</v>
       </c>
       <c r="AH303" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI303" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ303" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AK303" t="s" s="2">
-        <v>21</v>
+        <v>93</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
-        <v>1119</v>
+        <v>1129</v>
       </c>
       <c r="B304" t="s" s="2">
-        <v>1182</v>
+        <v>1191</v>
       </c>
       <c r="C304" t="s" s="2">
-        <v>1182</v>
+        <v>1191</v>
       </c>
       <c r="D304" s="2"/>
       <c r="E304" t="s" s="2">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="F304" s="2"/>
       <c r="G304" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H304" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I304" t="s" s="2">
         <v>21</v>
@@ -36862,17 +37176,15 @@
         <v>21</v>
       </c>
       <c r="L304" t="s" s="2">
-        <v>125</v>
+        <v>221</v>
       </c>
       <c r="M304" t="s" s="2">
-        <v>126</v>
+        <v>222</v>
       </c>
       <c r="N304" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="O304" t="s" s="2">
-        <v>128</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="O304" s="2"/>
       <c r="P304" s="2"/>
       <c r="Q304" t="s" s="2">
         <v>21</v>
@@ -36921,34 +37233,34 @@
         <v>21</v>
       </c>
       <c r="AG304" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AH304" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI304" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ304" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AK304" t="s" s="2">
-        <v>130</v>
+        <v>21</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s" s="2">
-        <v>1119</v>
+        <v>1129</v>
       </c>
       <c r="B305" t="s" s="2">
-        <v>1183</v>
+        <v>1192</v>
       </c>
       <c r="C305" t="s" s="2">
-        <v>1183</v>
+        <v>1192</v>
       </c>
       <c r="D305" s="2"/>
       <c r="E305" t="s" s="2">
-        <v>229</v>
+        <v>124</v>
       </c>
       <c r="F305" s="2"/>
       <c r="G305" t="s" s="2">
@@ -36961,26 +37273,24 @@
         <v>21</v>
       </c>
       <c r="J305" t="s" s="2">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="K305" t="s" s="2">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="L305" t="s" s="2">
         <v>125</v>
       </c>
       <c r="M305" t="s" s="2">
-        <v>230</v>
+        <v>126</v>
       </c>
       <c r="N305" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="O305" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="P305" t="s" s="2">
-        <v>134</v>
-      </c>
+      <c r="P305" s="2"/>
       <c r="Q305" t="s" s="2">
         <v>21</v>
       </c>
@@ -37028,7 +37338,7 @@
         <v>21</v>
       </c>
       <c r="AG305" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="AH305" t="s" s="2">
         <v>74</v>
@@ -37045,48 +37355,48 @@
     </row>
     <row r="306">
       <c r="A306" t="s" s="2">
-        <v>1119</v>
+        <v>1129</v>
       </c>
       <c r="B306" t="s" s="2">
-        <v>1184</v>
+        <v>1193</v>
       </c>
       <c r="C306" t="s" s="2">
-        <v>1184</v>
+        <v>1193</v>
       </c>
       <c r="D306" s="2"/>
       <c r="E306" t="s" s="2">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="F306" s="2"/>
       <c r="G306" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H306" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I306" t="s" s="2">
         <v>21</v>
       </c>
       <c r="J306" t="s" s="2">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="K306" t="s" s="2">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="L306" t="s" s="2">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="M306" t="s" s="2">
-        <v>1083</v>
+        <v>230</v>
       </c>
       <c r="N306" t="s" s="2">
-        <v>1084</v>
+        <v>231</v>
       </c>
       <c r="O306" t="s" s="2">
-        <v>1085</v>
+        <v>128</v>
       </c>
       <c r="P306" t="s" s="2">
-        <v>1086</v>
+        <v>134</v>
       </c>
       <c r="Q306" t="s" s="2">
         <v>21</v>
@@ -37111,13 +37421,13 @@
         <v>21</v>
       </c>
       <c r="Y306" t="s" s="2">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="Z306" t="s" s="2">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="AA306" t="s" s="2">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="AB306" t="s" s="2">
         <v>21</v>
@@ -37135,30 +37445,30 @@
         <v>21</v>
       </c>
       <c r="AG306" t="s" s="2">
-        <v>1184</v>
+        <v>232</v>
       </c>
       <c r="AH306" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AI306" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ306" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AK306" t="s" s="2">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>1119</v>
+        <v>1129</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>1185</v>
+        <v>1194</v>
       </c>
       <c r="C307" t="s" s="2">
-        <v>1185</v>
+        <v>1194</v>
       </c>
       <c r="D307" s="2"/>
       <c r="E307" t="s" s="2">
@@ -37166,7 +37476,7 @@
       </c>
       <c r="F307" s="2"/>
       <c r="G307" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H307" t="s" s="2">
         <v>81</v>
@@ -37181,19 +37491,19 @@
         <v>21</v>
       </c>
       <c r="L307" t="s" s="2">
-        <v>421</v>
+        <v>143</v>
       </c>
       <c r="M307" t="s" s="2">
-        <v>1088</v>
+        <v>1093</v>
       </c>
       <c r="N307" t="s" s="2">
-        <v>1089</v>
+        <v>1094</v>
       </c>
       <c r="O307" t="s" s="2">
-        <v>1090</v>
+        <v>1095</v>
       </c>
       <c r="P307" t="s" s="2">
-        <v>1091</v>
+        <v>1096</v>
       </c>
       <c r="Q307" t="s" s="2">
         <v>21</v>
@@ -37218,13 +37528,13 @@
         <v>21</v>
       </c>
       <c r="Y307" t="s" s="2">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="Z307" t="s" s="2">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="AA307" t="s" s="2">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="AB307" t="s" s="2">
         <v>21</v>
@@ -37242,10 +37552,10 @@
         <v>21</v>
       </c>
       <c r="AG307" t="s" s="2">
-        <v>1185</v>
+        <v>1194</v>
       </c>
       <c r="AH307" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AI307" t="s" s="2">
         <v>81</v>
@@ -37254,6 +37564,1771 @@
         <v>21</v>
       </c>
       <c r="AK307" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s" s="2">
+        <v>1129</v>
+      </c>
+      <c r="B308" t="s" s="2">
+        <v>1195</v>
+      </c>
+      <c r="C308" t="s" s="2">
+        <v>1195</v>
+      </c>
+      <c r="D308" s="2"/>
+      <c r="E308" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F308" s="2"/>
+      <c r="G308" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H308" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I308" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="J308" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="K308" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="L308" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M308" t="s" s="2">
+        <v>1098</v>
+      </c>
+      <c r="N308" t="s" s="2">
+        <v>1099</v>
+      </c>
+      <c r="O308" t="s" s="2">
+        <v>1100</v>
+      </c>
+      <c r="P308" t="s" s="2">
+        <v>1101</v>
+      </c>
+      <c r="Q308" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="R308" s="2"/>
+      <c r="S308" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="T308" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="U308" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="V308" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="W308" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="X308" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Y308" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Z308" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AA308" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AB308" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AC308" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AD308" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AE308" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AF308" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AG308" t="s" s="2">
+        <v>1195</v>
+      </c>
+      <c r="AH308" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI308" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ308" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AK308" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s" s="2">
+        <v>1196</v>
+      </c>
+      <c r="B309" t="s" s="2">
+        <v>970</v>
+      </c>
+      <c r="C309" t="s" s="2">
+        <v>970</v>
+      </c>
+      <c r="D309" s="2"/>
+      <c r="E309" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F309" s="2"/>
+      <c r="G309" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H309" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I309" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="J309" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="K309" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="L309" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="M309" t="s" s="2">
+        <v>977</v>
+      </c>
+      <c r="N309" t="s" s="2">
+        <v>978</v>
+      </c>
+      <c r="O309" s="2"/>
+      <c r="P309" s="2"/>
+      <c r="Q309" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="R309" s="2"/>
+      <c r="S309" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="T309" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="U309" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="V309" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="W309" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="X309" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Y309" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Z309" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AA309" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AB309" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AC309" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AD309" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AE309" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AF309" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AG309" t="s" s="2">
+        <v>970</v>
+      </c>
+      <c r="AH309" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI309" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ309" t="s" s="2">
+        <v>979</v>
+      </c>
+      <c r="AK309" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s" s="2">
+        <v>1196</v>
+      </c>
+      <c r="B310" t="s" s="2">
+        <v>1203</v>
+      </c>
+      <c r="C310" t="s" s="2">
+        <v>1203</v>
+      </c>
+      <c r="D310" s="2"/>
+      <c r="E310" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F310" s="2"/>
+      <c r="G310" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H310" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I310" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="J310" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="K310" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="L310" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M310" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="N310" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="O310" s="2"/>
+      <c r="P310" s="2"/>
+      <c r="Q310" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="R310" s="2"/>
+      <c r="S310" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="T310" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="U310" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="V310" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="W310" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="X310" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Y310" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Z310" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AA310" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AB310" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AC310" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AD310" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AE310" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AF310" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AG310" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AH310" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI310" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ310" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AK310" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s" s="2">
+        <v>1196</v>
+      </c>
+      <c r="B311" t="s" s="2">
+        <v>1204</v>
+      </c>
+      <c r="C311" t="s" s="2">
+        <v>1204</v>
+      </c>
+      <c r="D311" s="2"/>
+      <c r="E311" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F311" s="2"/>
+      <c r="G311" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H311" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I311" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="J311" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="K311" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="L311" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M311" t="s" s="2">
+        <v>970</v>
+      </c>
+      <c r="N311" t="s" s="2">
+        <v>971</v>
+      </c>
+      <c r="O311" s="2"/>
+      <c r="P311" s="2"/>
+      <c r="Q311" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="R311" s="2"/>
+      <c r="S311" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="T311" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="U311" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="V311" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="W311" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="X311" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Y311" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Z311" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AA311" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AB311" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AC311" t="s" s="2">
+        <v>972</v>
+      </c>
+      <c r="AD311" t="s" s="2">
+        <v>1205</v>
+      </c>
+      <c r="AE311" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AF311" t="s" s="2">
+        <v>973</v>
+      </c>
+      <c r="AG311" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AH311" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI311" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ311" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AK311" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s" s="2">
+        <v>1196</v>
+      </c>
+      <c r="B312" t="s" s="2">
+        <v>1206</v>
+      </c>
+      <c r="C312" t="s" s="2">
+        <v>1204</v>
+      </c>
+      <c r="D312" t="s" s="2">
+        <v>975</v>
+      </c>
+      <c r="E312" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F312" s="2"/>
+      <c r="G312" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H312" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I312" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="J312" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="K312" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="L312" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M312" t="s" s="2">
+        <v>970</v>
+      </c>
+      <c r="N312" t="s" s="2">
+        <v>971</v>
+      </c>
+      <c r="O312" s="2"/>
+      <c r="P312" s="2"/>
+      <c r="Q312" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="R312" s="2"/>
+      <c r="S312" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="T312" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="U312" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="V312" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="W312" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="X312" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Y312" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Z312" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AA312" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AB312" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AC312" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AD312" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AE312" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AF312" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AG312" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AH312" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI312" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ312" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AK312" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s" s="2">
+        <v>1196</v>
+      </c>
+      <c r="B313" t="s" s="2">
+        <v>1207</v>
+      </c>
+      <c r="C313" t="s" s="2">
+        <v>1208</v>
+      </c>
+      <c r="D313" s="2"/>
+      <c r="E313" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F313" s="2"/>
+      <c r="G313" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H313" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I313" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="J313" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="K313" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="L313" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M313" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="N313" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="O313" s="2"/>
+      <c r="P313" s="2"/>
+      <c r="Q313" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="R313" s="2"/>
+      <c r="S313" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="T313" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="U313" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="V313" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="W313" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="X313" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Y313" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Z313" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AA313" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AB313" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AC313" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AD313" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AE313" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AF313" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AG313" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AH313" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI313" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ313" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AK313" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s" s="2">
+        <v>1196</v>
+      </c>
+      <c r="B314" t="s" s="2">
+        <v>1209</v>
+      </c>
+      <c r="C314" t="s" s="2">
+        <v>1210</v>
+      </c>
+      <c r="D314" s="2"/>
+      <c r="E314" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F314" s="2"/>
+      <c r="G314" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H314" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I314" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="J314" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="K314" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="L314" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M314" t="s" s="2">
+        <v>970</v>
+      </c>
+      <c r="N314" t="s" s="2">
+        <v>971</v>
+      </c>
+      <c r="O314" s="2"/>
+      <c r="P314" s="2"/>
+      <c r="Q314" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="R314" s="2"/>
+      <c r="S314" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="T314" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="U314" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="V314" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="W314" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="X314" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Y314" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Z314" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AA314" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AB314" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AC314" t="s" s="2">
+        <v>972</v>
+      </c>
+      <c r="AD314" t="s" s="2">
+        <v>1205</v>
+      </c>
+      <c r="AE314" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AF314" t="s" s="2">
+        <v>973</v>
+      </c>
+      <c r="AG314" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AH314" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI314" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ314" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AK314" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s" s="2">
+        <v>1196</v>
+      </c>
+      <c r="B315" t="s" s="2">
+        <v>1211</v>
+      </c>
+      <c r="C315" t="s" s="2">
+        <v>1212</v>
+      </c>
+      <c r="D315" s="2"/>
+      <c r="E315" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F315" s="2"/>
+      <c r="G315" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H315" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I315" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="J315" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="K315" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="L315" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="M315" t="s" s="2">
+        <v>1213</v>
+      </c>
+      <c r="N315" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="O315" t="s" s="2">
+        <v>1215</v>
+      </c>
+      <c r="P315" s="2"/>
+      <c r="Q315" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="R315" s="2"/>
+      <c r="S315" t="s" s="2">
+        <v>975</v>
+      </c>
+      <c r="T315" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="U315" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="V315" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="W315" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="X315" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Y315" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Z315" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AA315" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AB315" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AC315" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AD315" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AE315" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AF315" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AG315" t="s" s="2">
+        <v>1216</v>
+      </c>
+      <c r="AH315" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI315" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ315" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AK315" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s" s="2">
+        <v>1196</v>
+      </c>
+      <c r="B316" t="s" s="2">
+        <v>1217</v>
+      </c>
+      <c r="C316" t="s" s="2">
+        <v>1218</v>
+      </c>
+      <c r="D316" s="2"/>
+      <c r="E316" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F316" s="2"/>
+      <c r="G316" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H316" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I316" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="J316" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="K316" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="L316" t="s" s="2">
+        <v>1219</v>
+      </c>
+      <c r="M316" t="s" s="2">
+        <v>1220</v>
+      </c>
+      <c r="N316" t="s" s="2">
+        <v>1221</v>
+      </c>
+      <c r="O316" s="2"/>
+      <c r="P316" s="2"/>
+      <c r="Q316" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="R316" s="2"/>
+      <c r="S316" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="T316" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="U316" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="V316" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="W316" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="X316" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Y316" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Z316" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AA316" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AB316" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AC316" t="s" s="2">
+        <v>1222</v>
+      </c>
+      <c r="AD316" s="2"/>
+      <c r="AE316" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AF316" t="s" s="2">
+        <v>973</v>
+      </c>
+      <c r="AG316" t="s" s="2">
+        <v>1223</v>
+      </c>
+      <c r="AH316" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI316" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ316" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AK316" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s" s="2">
+        <v>1196</v>
+      </c>
+      <c r="B317" t="s" s="2">
+        <v>1224</v>
+      </c>
+      <c r="C317" t="s" s="2">
+        <v>1218</v>
+      </c>
+      <c r="D317" t="s" s="2">
+        <v>1225</v>
+      </c>
+      <c r="E317" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F317" s="2"/>
+      <c r="G317" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H317" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I317" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="J317" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="K317" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="L317" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="M317" t="s" s="2">
+        <v>1220</v>
+      </c>
+      <c r="N317" t="s" s="2">
+        <v>1221</v>
+      </c>
+      <c r="O317" s="2"/>
+      <c r="P317" s="2"/>
+      <c r="Q317" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="R317" s="2"/>
+      <c r="S317" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="T317" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="U317" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="V317" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="W317" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="X317" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Y317" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="Z317" s="2"/>
+      <c r="AA317" t="s" s="2">
+        <v>1226</v>
+      </c>
+      <c r="AB317" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AC317" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AD317" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AE317" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AF317" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AG317" t="s" s="2">
+        <v>1223</v>
+      </c>
+      <c r="AH317" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI317" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ317" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AK317" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s" s="2">
+        <v>1196</v>
+      </c>
+      <c r="B318" t="s" s="2">
+        <v>1227</v>
+      </c>
+      <c r="C318" t="s" s="2">
+        <v>1204</v>
+      </c>
+      <c r="D318" t="s" s="2">
+        <v>1228</v>
+      </c>
+      <c r="E318" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F318" s="2"/>
+      <c r="G318" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H318" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I318" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="J318" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="K318" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="L318" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M318" t="s" s="2">
+        <v>970</v>
+      </c>
+      <c r="N318" t="s" s="2">
+        <v>971</v>
+      </c>
+      <c r="O318" s="2"/>
+      <c r="P318" s="2"/>
+      <c r="Q318" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="R318" s="2"/>
+      <c r="S318" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="T318" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="U318" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="V318" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="W318" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="X318" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Y318" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Z318" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AA318" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AB318" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AC318" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AD318" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AE318" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AF318" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AG318" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AH318" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI318" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ318" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AK318" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s" s="2">
+        <v>1196</v>
+      </c>
+      <c r="B319" t="s" s="2">
+        <v>1229</v>
+      </c>
+      <c r="C319" t="s" s="2">
+        <v>1208</v>
+      </c>
+      <c r="D319" s="2"/>
+      <c r="E319" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F319" s="2"/>
+      <c r="G319" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H319" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I319" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="J319" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="K319" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="L319" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M319" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="N319" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="O319" s="2"/>
+      <c r="P319" s="2"/>
+      <c r="Q319" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="R319" s="2"/>
+      <c r="S319" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="T319" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="U319" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="V319" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="W319" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="X319" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Y319" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Z319" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AA319" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AB319" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AC319" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AD319" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AE319" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AF319" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AG319" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AH319" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI319" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ319" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AK319" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s" s="2">
+        <v>1196</v>
+      </c>
+      <c r="B320" t="s" s="2">
+        <v>1230</v>
+      </c>
+      <c r="C320" t="s" s="2">
+        <v>1210</v>
+      </c>
+      <c r="D320" s="2"/>
+      <c r="E320" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="F320" s="2"/>
+      <c r="G320" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H320" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I320" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="J320" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="K320" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="L320" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M320" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="N320" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="O320" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="P320" s="2"/>
+      <c r="Q320" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="R320" s="2"/>
+      <c r="S320" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="T320" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="U320" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="V320" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="W320" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="X320" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Y320" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Z320" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AA320" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AB320" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AC320" t="s" s="2">
+        <v>972</v>
+      </c>
+      <c r="AD320" t="s" s="2">
+        <v>1205</v>
+      </c>
+      <c r="AE320" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AF320" t="s" s="2">
+        <v>973</v>
+      </c>
+      <c r="AG320" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AH320" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI320" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ320" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AK320" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s" s="2">
+        <v>1196</v>
+      </c>
+      <c r="B321" t="s" s="2">
+        <v>1231</v>
+      </c>
+      <c r="C321" t="s" s="2">
+        <v>1212</v>
+      </c>
+      <c r="D321" s="2"/>
+      <c r="E321" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F321" s="2"/>
+      <c r="G321" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H321" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I321" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="J321" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="K321" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="L321" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="M321" t="s" s="2">
+        <v>1213</v>
+      </c>
+      <c r="N321" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="O321" t="s" s="2">
+        <v>1215</v>
+      </c>
+      <c r="P321" s="2"/>
+      <c r="Q321" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="R321" s="2"/>
+      <c r="S321" t="s" s="2">
+        <v>1228</v>
+      </c>
+      <c r="T321" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="U321" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="V321" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="W321" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="X321" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Y321" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Z321" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AA321" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AB321" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AC321" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AD321" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AE321" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AF321" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AG321" t="s" s="2">
+        <v>1216</v>
+      </c>
+      <c r="AH321" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI321" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ321" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AK321" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s" s="2">
+        <v>1196</v>
+      </c>
+      <c r="B322" t="s" s="2">
+        <v>1232</v>
+      </c>
+      <c r="C322" t="s" s="2">
+        <v>1218</v>
+      </c>
+      <c r="D322" s="2"/>
+      <c r="E322" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F322" s="2"/>
+      <c r="G322" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H322" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I322" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="J322" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="K322" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="L322" t="s" s="2">
+        <v>1219</v>
+      </c>
+      <c r="M322" t="s" s="2">
+        <v>1220</v>
+      </c>
+      <c r="N322" t="s" s="2">
+        <v>1221</v>
+      </c>
+      <c r="O322" s="2"/>
+      <c r="P322" s="2"/>
+      <c r="Q322" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="R322" s="2"/>
+      <c r="S322" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="T322" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="U322" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="V322" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="W322" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="X322" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Y322" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Z322" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AA322" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AB322" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AC322" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AD322" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AE322" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AF322" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AG322" t="s" s="2">
+        <v>1223</v>
+      </c>
+      <c r="AH322" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI322" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ322" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AK322" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s" s="2">
+        <v>1196</v>
+      </c>
+      <c r="B323" t="s" s="2">
+        <v>1216</v>
+      </c>
+      <c r="C323" t="s" s="2">
+        <v>1216</v>
+      </c>
+      <c r="D323" s="2"/>
+      <c r="E323" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F323" s="2"/>
+      <c r="G323" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H323" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I323" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="J323" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="K323" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="L323" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="M323" t="s" s="2">
+        <v>1213</v>
+      </c>
+      <c r="N323" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="O323" t="s" s="2">
+        <v>1215</v>
+      </c>
+      <c r="P323" s="2"/>
+      <c r="Q323" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="R323" s="2"/>
+      <c r="S323" t="s" s="2">
+        <v>1197</v>
+      </c>
+      <c r="T323" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="U323" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="V323" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="W323" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="X323" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Y323" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Z323" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AA323" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AB323" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AC323" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AD323" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AE323" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AF323" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AG323" t="s" s="2">
+        <v>1216</v>
+      </c>
+      <c r="AH323" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI323" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ323" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AK323" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s" s="2">
+        <v>1196</v>
+      </c>
+      <c r="B324" t="s" s="2">
+        <v>1223</v>
+      </c>
+      <c r="C324" t="s" s="2">
+        <v>1223</v>
+      </c>
+      <c r="D324" s="2"/>
+      <c r="E324" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F324" s="2"/>
+      <c r="G324" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H324" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I324" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="J324" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="K324" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="L324" t="s" s="2">
+        <v>1219</v>
+      </c>
+      <c r="M324" t="s" s="2">
+        <v>1220</v>
+      </c>
+      <c r="N324" t="s" s="2">
+        <v>1221</v>
+      </c>
+      <c r="O324" s="2"/>
+      <c r="P324" s="2"/>
+      <c r="Q324" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="R324" s="2"/>
+      <c r="S324" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="T324" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="U324" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="V324" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="W324" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="X324" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Y324" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Z324" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AA324" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AB324" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AC324" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AD324" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AE324" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AF324" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AG324" t="s" s="2">
+        <v>1223</v>
+      </c>
+      <c r="AH324" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI324" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ324" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AK324" t="s" s="2">
         <v>93</v>
       </c>
     </row>

--- a/temp/pages/all-profiles.xlsx
+++ b/temp/pages/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-07T21:33:56+00:00</t>
+    <t>2025-09-08T17:38:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
